--- a/data/hotels_by_city/Denver/Denver_shard_284.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_284.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="417">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g29144-d1156926-Reviews-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-WoodSpring-Suites-Denver-Aurora.h1889080.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1132 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r566986013-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>29144</t>
+  </si>
+  <si>
+    <t>1156926</t>
+  </si>
+  <si>
+    <t>566986013</t>
+  </si>
+  <si>
+    <t>03/17/2018</t>
+  </si>
+  <si>
+    <t>Best Value for the Aurora Area!</t>
+  </si>
+  <si>
+    <t>-  Stayed  30+ days at this Well Managed, Quality and Clean hotel.  Been staying at this hotel for a couple of years.-  Quick check-In and check-out:  Professional and helpful front desk staff-  Rooms  are very clean with a 2 burner stove in Kitchen area -  Comfortable bed, LED TV and a table with 2 chairs.-  Pet friendly hotel, quiet atmosphere, amazingly I didn't hear any of the dogs barking while staying at the hotel.-  good secure entry doors- Free Wifi, Very Strong-  Close to Buckley AFB, Super Target Open Mall area and the Aurora Mall.I was very happy with my room and the services that the hotel provided.  I  will definitely book again when I stay in aurora.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>-  Stayed  30+ days at this Well Managed, Quality and Clean hotel.  Been staying at this hotel for a couple of years.-  Quick check-In and check-out:  Professional and helpful front desk staff-  Rooms  are very clean with a 2 burner stove in Kitchen area -  Comfortable bed, LED TV and a table with 2 chairs.-  Pet friendly hotel, quiet atmosphere, amazingly I didn't hear any of the dogs barking while staying at the hotel.-  good secure entry doors- Free Wifi, Very Strong-  Close to Buckley AFB, Super Target Open Mall area and the Aurora Mall.I was very happy with my room and the services that the hotel provided.  I  will definitely book again when I stay in aurora.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r562392712-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>562392712</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t>Thank You!</t>
+  </si>
+  <si>
+    <t>We've thouroughly enjoyed the experience during our month long stay here. The customer service from all employees has been stellar, specifically of that provided by Christina &amp; DaRon @ the front desk &amp; from Mary in room srervice. Thanks to you all for the exceptional treatment from staff @ a hotel w/such affordable options.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations Corporate Liaison at WoodSpring Suites Denver Aurora, responded to this reviewResponded February 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2018</t>
+  </si>
+  <si>
+    <t>We've thouroughly enjoyed the experience during our month long stay here. The customer service from all employees has been stellar, specifically of that provided by Christina &amp; DaRon @ the front desk &amp; from Mary in room srervice. Thanks to you all for the exceptional treatment from staff @ a hotel w/such affordable options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r562165720-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>562165720</t>
+  </si>
+  <si>
+    <t>02/22/2018</t>
+  </si>
+  <si>
+    <t>Outstanding service for the best price!</t>
+  </si>
+  <si>
+    <t>If you are looking for the best deal on a weekly/monthly rate in the Denver &amp; Aurora then look no further - you've found it!I give this review 5 stars simply because every major criteria I look for in lodging, Woodspring Suites has gone above and beyond!Customer Service: The staff at Woodspring are all so very friendly and professionals in the field. The General Manager is doing an outstanding job with staffing and accommodations, he definitely cares about the facility and guest satisfaction!Rooms: The rooms are clean and well equipped, additional amenities are available if needed and the comfort of the beds I was quite satisfied with. Grounds: The hotel has a spacious guest laundry room, the outside grounds are well maintained and they are very pet friendly!Location: Coveniently located near tons of shops, a mall, grocery, Wal-Mart, restaurants, gas stations, bus and light-rail access within a mile radius!Simply put, I highly recommend this location over any other extended stay hotel in the Denver Metro area, I am ultra satisfied!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>If you are looking for the best deal on a weekly/monthly rate in the Denver &amp; Aurora then look no further - you've found it!I give this review 5 stars simply because every major criteria I look for in lodging, Woodspring Suites has gone above and beyond!Customer Service: The staff at Woodspring are all so very friendly and professionals in the field. The General Manager is doing an outstanding job with staffing and accommodations, he definitely cares about the facility and guest satisfaction!Rooms: The rooms are clean and well equipped, additional amenities are available if needed and the comfort of the beds I was quite satisfied with. Grounds: The hotel has a spacious guest laundry room, the outside grounds are well maintained and they are very pet friendly!Location: Coveniently located near tons of shops, a mall, grocery, Wal-Mart, restaurants, gas stations, bus and light-rail access within a mile radius!Simply put, I highly recommend this location over any other extended stay hotel in the Denver Metro area, I am ultra satisfied!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r540534129-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>540534129</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>The price is tempting but do NOT stay here. Trust me.</t>
+  </si>
+  <si>
+    <t>Did this place catch your eye because you just need a clean, simple place to sleep before you catch an early morning flight? And that price can't be beat, right? Yeah, us too. I would rate this place zero stars and a biohazard symbol if I could. Despite being advertised as a nonsmoking hotel (and them being quick to tell you you'll be charged $250 for smoking), the place reeked of cigarette smoke. There was even a cigarette put out in the hallway on our floor.....which brings me to my next point - the place is dirty. On top of that, a staff member and her boyfriend (I assume) were having such a loud and aggressive argument in the elevator that we were scared to get in and took the stairs. We were in the hotel for less than an hour and decided that all of this was too much to tolerate. The front desk had already closed so we called the after hours number to check out. They checked us out and we were told we could call the front desk in the morning to try to get a refund. We called and no refund was issued. Apparently, filthy conditions, cigarette filled hallways, and public displays of domestic abuse isn't worthy of a refund. The cost of this nasty place + the cost of the real hotel we fled to = an expensive lesson learned: do NOT book here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded December 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2017</t>
+  </si>
+  <si>
+    <t>Did this place catch your eye because you just need a clean, simple place to sleep before you catch an early morning flight? And that price can't be beat, right? Yeah, us too. I would rate this place zero stars and a biohazard symbol if I could. Despite being advertised as a nonsmoking hotel (and them being quick to tell you you'll be charged $250 for smoking), the place reeked of cigarette smoke. There was even a cigarette put out in the hallway on our floor.....which brings me to my next point - the place is dirty. On top of that, a staff member and her boyfriend (I assume) were having such a loud and aggressive argument in the elevator that we were scared to get in and took the stairs. We were in the hotel for less than an hour and decided that all of this was too much to tolerate. The front desk had already closed so we called the after hours number to check out. They checked us out and we were told we could call the front desk in the morning to try to get a refund. We called and no refund was issued. Apparently, filthy conditions, cigarette filled hallways, and public displays of domestic abuse isn't worthy of a refund. The cost of this nasty place + the cost of the real hotel we fled to = an expensive lesson learned: do NOT book here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r532990168-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>532990168</t>
+  </si>
+  <si>
+    <t>10/14/2017</t>
+  </si>
+  <si>
+    <t>fair value for $</t>
+  </si>
+  <si>
+    <t>fair value.  Reminded me of a suite style Motel ^.  Room had everything required but what was provided was basic (not pretty but functional). I don't have anything else to say, but site wants more characters added..MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>fair value.  Reminded me of a suite style Motel ^.  Room had everything required but what was provided was basic (not pretty but functional). I don't have anything else to say, but site wants more characters added..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r529878468-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>529878468</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Don't waste your time or money here.</t>
+  </si>
+  <si>
+    <t>We arrived at 1:30, was told they did not have any rooms cleaned, magically at 3, all rooms were ready, all at one time. We arrive in the room and the sheets are dingy and discolored, the floor has hair and dust on it, I do not think they clean the rooms at all. There are absolutely no amenities, no hand soup, shampoo, lotion, nothing. Hotel staff is not very warm, or welcoming, had an attitude anytime they were asked a question. I forgot something in the hotel and when I called, at 2, they said they haven't cleaned the room. So, I called back, they hung-up. When I called back, she said she checked the room when we got disconnected, well I had called right back after being hung-up on, so there is no way she actually checked, the room is on the 2nd floor at the end of the hall, even with stairs you wouldn't get there in 30 seconds. So, no, I will not be staying here again, I do not trust the staff, they do not seem to clean, or have any kind of hospitality. Save yourself the hassle and stay somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We arrived at 1:30, was told they did not have any rooms cleaned, magically at 3, all rooms were ready, all at one time. We arrive in the room and the sheets are dingy and discolored, the floor has hair and dust on it, I do not think they clean the rooms at all. There are absolutely no amenities, no hand soup, shampoo, lotion, nothing. Hotel staff is not very warm, or welcoming, had an attitude anytime they were asked a question. I forgot something in the hotel and when I called, at 2, they said they haven't cleaned the room. So, I called back, they hung-up. When I called back, she said she checked the room when we got disconnected, well I had called right back after being hung-up on, so there is no way she actually checked, the room is on the 2nd floor at the end of the hall, even with stairs you wouldn't get there in 30 seconds. So, no, I will not be staying here again, I do not trust the staff, they do not seem to clean, or have any kind of hospitality. Save yourself the hassle and stay somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r503291447-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>503291447</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel room for a week long or extended stay near-driving distance  to downtown Denver!</t>
+  </si>
+  <si>
+    <t>Clean, newly updated studio efficiency with mini-kitchen, frig, and micro-wave.  Since I prefer to prepare my own healthy food choices and save money this was perfect for me!I had to have a large USPS box delivered to this address while I was out working in downtown and the front desk signed for it when it was delivered and put it behind the front desk until I returned that evening.  It was safe and unopened when I got back to the hotel that evening however, the luggage cart was in use somewhere else in the hotel so I was unable to lift this large/heavy box.  Fortunately, the evening attendant Mr. Ian K. was more than thoughtful ,kind and courteous to hand carry it up to my room without my asking him to do so.  Give this employee a raise he's a dedicated employee.  Thank you Ian I appreciate your helpful service, your also a gentleman.Guest- Jennifer P.C., Oklahoma City, OKMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Clean, newly updated studio efficiency with mini-kitchen, frig, and micro-wave.  Since I prefer to prepare my own healthy food choices and save money this was perfect for me!I had to have a large USPS box delivered to this address while I was out working in downtown and the front desk signed for it when it was delivered and put it behind the front desk until I returned that evening.  It was safe and unopened when I got back to the hotel that evening however, the luggage cart was in use somewhere else in the hotel so I was unable to lift this large/heavy box.  Fortunately, the evening attendant Mr. Ian K. was more than thoughtful ,kind and courteous to hand carry it up to my room without my asking him to do so.  Give this employee a raise he's a dedicated employee.  Thank you Ian I appreciate your helpful service, your also a gentleman.Guest- Jennifer P.C., Oklahoma City, OKMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r502199541-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>502199541</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service!</t>
+  </si>
+  <si>
+    <t>Very pleased with the Hotel as a whole.  Rooms were very clean. The staff was extremely friendly and helpful. I was very impressed on how clean everything was,from our room to the laundry room. You could tell that the staff took pride in their jobs.    My only complaint would be that they have queen size beds in all rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very pleased with the Hotel as a whole.  Rooms were very clean. The staff was extremely friendly and helpful. I was very impressed on how clean everything was,from our room to the laundry room. You could tell that the staff took pride in their jobs.    My only complaint would be that they have queen size beds in all rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r495727695-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>495727695</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>Worst customer service skills ever!!</t>
+  </si>
+  <si>
+    <t>Upon check in I was told that the room I reserved ( a suite with two queen beds, to accommodate two adults and two adult sized teenagers) was unavailable due to other long term guests extending their stay.  Nothing was offered in apology to correct the issue except, either purchase another room or go buy an air mattress.  No offer to discount our stay.  Then she had the nerve to say, they don't guarantee you will get the type of room you request, but just any room that's available.  She did say we could purchase a separate room for the same price!  At you kidding me!!  They screw up, don't bother to call, and then expect us to happily fork over another $600 bucks for the week??  No way.  If there was anything else available in this town for the week, we would be gone.  Instead we had to drive and purchase an air mattress so that our kids don't have to sleep on the dirty linoleum floor.  So disgusted with this place!!  I do not recommend at all. If I could have left a 0 rating I would have.  Honestly, if it weren't for the terrible service and the overbooking this would have been a decent place to stay for the week.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Upon check in I was told that the room I reserved ( a suite with two queen beds, to accommodate two adults and two adult sized teenagers) was unavailable due to other long term guests extending their stay.  Nothing was offered in apology to correct the issue except, either purchase another room or go buy an air mattress.  No offer to discount our stay.  Then she had the nerve to say, they don't guarantee you will get the type of room you request, but just any room that's available.  She did say we could purchase a separate room for the same price!  At you kidding me!!  They screw up, don't bother to call, and then expect us to happily fork over another $600 bucks for the week??  No way.  If there was anything else available in this town for the week, we would be gone.  Instead we had to drive and purchase an air mattress so that our kids don't have to sleep on the dirty linoleum floor.  So disgusted with this place!!  I do not recommend at all. If I could have left a 0 rating I would have.  Honestly, if it weren't for the terrible service and the overbooking this would have been a decent place to stay for the week.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r471939753-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>471939753</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>Long term stay</t>
+  </si>
+  <si>
+    <t>Great Hotel, reasonable price and great staff.  Clean rooms and convenient location.  Public transportation nearby.  Route 225 and airport close by,  Shopping center close by.  Near air force base. Convenient, convenient, convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Great Hotel, reasonable price and great staff.  Clean rooms and convenient location.  Public transportation nearby.  Route 225 and airport close by,  Shopping center close by.  Near air force base. Convenient, convenient, convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r464877706-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>464877706</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t>Pleasantry in the Rough</t>
+  </si>
+  <si>
+    <t>My room at WoodSpring was well maintained, the area has a bad reputation, but the rough territory is really on the other side of the main road, 6th. There is a friendly local store within the mall 2 minutes walk away, a friendly Dennys for breakfasts and the staff at the Suites are very helpful and easily found. The laundry is fast and clean. I found all the residents during my 3 week stay to be friendly and kind. The only exception was a noisy couple who were taken to task by the staff after a complaint.Very easy to get to from the main highway and useful for getting anywhere in the Denver Metro area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>My room at WoodSpring was well maintained, the area has a bad reputation, but the rough territory is really on the other side of the main road, 6th. There is a friendly local store within the mall 2 minutes walk away, a friendly Dennys for breakfasts and the staff at the Suites are very helpful and easily found. The laundry is fast and clean. I found all the residents during my 3 week stay to be friendly and kind. The only exception was a noisy couple who were taken to task by the staff after a complaint.Very easy to get to from the main highway and useful for getting anywhere in the Denver Metro area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r463596761-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>463596761</t>
+  </si>
+  <si>
+    <t>02/28/2017</t>
+  </si>
+  <si>
+    <t>Great hotel awsome service!</t>
+  </si>
+  <si>
+    <t>I had to stay here for a while and the manager Daron and his staff was awesome. Stayed on the 4th floor and never had a major problem any small ones were taken care of quickly, the hotel is clean close to bus stops, the mall, light rail, grocery stores. I want to thank deron, mary, shanteri, ion, and Walter for making my extended stay there comfortable. Thanks. Ronnie B.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded March 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2017</t>
+  </si>
+  <si>
+    <t>I had to stay here for a while and the manager Daron and his staff was awesome. Stayed on the 4th floor and never had a major problem any small ones were taken care of quickly, the hotel is clean close to bus stops, the mall, light rail, grocery stores. I want to thank deron, mary, shanteri, ion, and Walter for making my extended stay there comfortable. Thanks. Ronnie B.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r455955114-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>455955114</t>
+  </si>
+  <si>
+    <t>01/30/2017</t>
+  </si>
+  <si>
+    <t>Clean, economical and safe!</t>
+  </si>
+  <si>
+    <t>I stayed here from Jan 2 - 13, 2017. It has a large clean bathroom, with a shelf to place toiletries; a two burner cooktop, full size fridge and large sink with ample cabinetry; comfortable bed and pillows; great flat screen tv with good selection of channels and free wifi. The water is hot and ample. Noise was minimal... sound carries, but I've been in high end chains with the same issue and it is negligible here. The staff is friendly and helpful. I bought the housekeeping box that was good value since I ate in the whole time I was there. There is bus service less than a block away. A Mexican grocery across the street. Walmart and Target are south, about a mile, but on bus line. To keep pricing down, you are allotted 2 towels and 2 wash clothes for 2 weeks. If you want daily linen service you pay extra. This is all made very clear on check in. Overall, I'd stay here again with no qualms. If you need a place for a week or more, check out Woodspring Suites.... Tell them Beth was happy! Also, parking is ample!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here from Jan 2 - 13, 2017. It has a large clean bathroom, with a shelf to place toiletries; a two burner cooktop, full size fridge and large sink with ample cabinetry; comfortable bed and pillows; great flat screen tv with good selection of channels and free wifi. The water is hot and ample. Noise was minimal... sound carries, but I've been in high end chains with the same issue and it is negligible here. The staff is friendly and helpful. I bought the housekeeping box that was good value since I ate in the whole time I was there. There is bus service less than a block away. A Mexican grocery across the street. Walmart and Target are south, about a mile, but on bus line. To keep pricing down, you are allotted 2 towels and 2 wash clothes for 2 weeks. If you want daily linen service you pay extra. This is all made very clear on check in. Overall, I'd stay here again with no qualms. If you need a place for a week or more, check out Woodspring Suites.... Tell them Beth was happy! Also, parking is ample!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r454777720-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>454777720</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>The hotel staff have been very helpful and with any questions or concerns we've had during our stay. My girlfriend is having long term treatment atUCH which is 5 minutes away making this location ideal. The hotel is clean and very reasonably priced.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel staff have been very helpful and with any questions or concerns we've had during our stay. My girlfriend is having long term treatment atUCH which is 5 minutes away making this location ideal. The hotel is clean and very reasonably priced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r429485013-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>429485013</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfortable </t>
+  </si>
+  <si>
+    <t>Being stuck for 12 days I spent 11 in this hotel. Full size refrigerator 2 burner cook top and microwave. Thru my own fault I didn't notice small magnet on refrigerator telling me front desk has plates etc for use. So I used and reused a cup o soup bowl for my cereal. My only complaint would be slamming doors of guest near me and the fact they undoubtedly rented to Sasquatch above me Monday night. Walking so hard it literally shook my bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded January 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2017</t>
+  </si>
+  <si>
+    <t>Being stuck for 12 days I spent 11 in this hotel. Full size refrigerator 2 burner cook top and microwave. Thru my own fault I didn't notice small magnet on refrigerator telling me front desk has plates etc for use. So I used and reused a cup o soup bowl for my cereal. My only complaint would be slamming doors of guest near me and the fact they undoubtedly rented to Sasquatch above me Monday night. Walking so hard it literally shook my bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r423320492-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>423320492</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>Great Atmosphere and Staff!</t>
+  </si>
+  <si>
+    <t>Clean rooms, accommodating and friendly management/staff, family friendly, with reasonable prices. Everything we needed and more.. all we had to do was ask. Comfortable month long stay in 4th floor non-smoking room with child. Thanks guys!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded October 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2016</t>
+  </si>
+  <si>
+    <t>Clean rooms, accommodating and friendly management/staff, family friendly, with reasonable prices. Everything we needed and more.. all we had to do was ask. Comfortable month long stay in 4th floor non-smoking room with child. Thanks guys!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r423191815-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>423191815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place </t>
+  </si>
+  <si>
+    <t>One of the best places that I have stayed. The rooms were modern and clean. The staff was friendly and very helpful. I am one hundred percent disabled and in a wheelchair and the staff treated me like I was home. MoreShow less</t>
+  </si>
+  <si>
+    <t>One of the best places that I have stayed. The rooms were modern and clean. The staff was friendly and very helpful. I am one hundred percent disabled and in a wheelchair and the staff treated me like I was home. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r422849329-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>422849329</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>Awesome Hotel</t>
+  </si>
+  <si>
+    <t>The room was clean and modern.The employees were friendly and professional.But best of all this is the cheapest hotel in the Denver Area.I would stay at this hotel again, you really can't beat the bargain.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was clean and modern.The employees were friendly and professional.But best of all this is the cheapest hotel in the Denver Area.I would stay at this hotel again, you really can't beat the bargain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r411442138-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>411442138</t>
+  </si>
+  <si>
+    <t>08/27/2016</t>
+  </si>
+  <si>
+    <t>Met expectation for Price very Spartan</t>
+  </si>
+  <si>
+    <t>Stayed in double room 210. Clean and Spartan. Staff was very friendly and helpful. Staff was not at front desk 24 hours, but available via phone to come to desk. Rooms have refrigerator,cook top 2 burner,tv,small table and 2 chairs . WiFy was $10.00 for week. It is an inexpensive place to stay for short term. We stayed 8 nights. We are 76 and 74 with no Children. There are no other facilities available, ie pool gym etc. Planning to stay in SeptMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Stayed in double room 210. Clean and Spartan. Staff was very friendly and helpful. Staff was not at front desk 24 hours, but available via phone to come to desk. Rooms have refrigerator,cook top 2 burner,tv,small table and 2 chairs . WiFy was $10.00 for week. It is an inexpensive place to stay for short term. We stayed 8 nights. We are 76 and 74 with no Children. There are no other facilities available, ie pool gym etc. Planning to stay in SeptMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r390760785-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>390760785</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>Great long-term stay hotel, excellent staff</t>
+  </si>
+  <si>
+    <t>This is a clean and well-managed long-term stay hotel. We took our nephew to Colorado for a new job. We made the reservation in advance, and check-in was very smooth. The room was clean and comfortable with all of the advertised amenities. Staff was very professional and courteous. Facilities all well-maintained and nephew said the  hotel was quiet at night. The manager, DaRon Porter was TERRIFIC in assisting us once we were ready to check out.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>This is a clean and well-managed long-term stay hotel. We took our nephew to Colorado for a new job. We made the reservation in advance, and check-in was very smooth. The room was clean and comfortable with all of the advertised amenities. Staff was very professional and courteous. Facilities all well-maintained and nephew said the  hotel was quiet at night. The manager, DaRon Porter was TERRIFIC in assisting us once we were ready to check out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r345279704-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>345279704</t>
+  </si>
+  <si>
+    <t>02/05/2016</t>
+  </si>
+  <si>
+    <t>Great Overall Value!</t>
+  </si>
+  <si>
+    <t>I stayed at Value Place, the experience was an excellent one. The staff was great, especially Shaiteria and Deron. They went above and beyond to ensure excellent service. Mary kept my room very clean, and the rest of the staff maintained a very clean, very enjoyable environment.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded February 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at Value Place, the experience was an excellent one. The staff was great, especially Shaiteria and Deron. They went above and beyond to ensure excellent service. Mary kept my room very clean, and the rest of the staff maintained a very clean, very enjoyable environment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r326329474-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>326329474</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>Work Stay</t>
+  </si>
+  <si>
+    <t>This is my second summer staying at this location (4 months last year and 5 this year) and once again it was great. DaRon the general mgr. runs a very clean and efficient hotel and I never had a problem. I will be back in the spring for work in Denver and I will be staying here once again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded November 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2015</t>
+  </si>
+  <si>
+    <t>This is my second summer staying at this location (4 months last year and 5 this year) and once again it was great. DaRon the general mgr. runs a very clean and efficient hotel and I never had a problem. I will be back in the spring for work in Denver and I will be staying here once again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r326325123-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>326325123</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>I have been staying at Value Place for a while now, and I must say that the staff at this location is amazing, fast, friendly, and very professional. Every need I have they meet right away, Walter, DaRon, Ian, Gina, Mary, and Shatieria are the absolute best staff ever!!! I thank them for everything!MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been staying at Value Place for a while now, and I must say that the staff at this location is amazing, fast, friendly, and very professional. Every need I have they meet right away, Walter, DaRon, Ian, Gina, Mary, and Shatieria are the absolute best staff ever!!! I thank them for everything!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r320793453-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>320793453</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>Very comfortable/Best price available</t>
+  </si>
+  <si>
+    <t>Other reviewers are correct---just ask for the GM DaRon. He was attentive, courteous, and professional and helped to make our 3-week stay very enjoyable. Mary in the Housekeeping Dept was also extremely kind and concerned with making our stay comfortable. The studio room we stayed in was compact but had very usable space---especially the kitchen. With such great service and good accommodations, it is extra amazing that this was by far the most affordable extended-stay hotel we could find.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Other reviewers are correct---just ask for the GM DaRon. He was attentive, courteous, and professional and helped to make our 3-week stay very enjoyable. Mary in the Housekeeping Dept was also extremely kind and concerned with making our stay comfortable. The studio room we stayed in was compact but had very usable space---especially the kitchen. With such great service and good accommodations, it is extra amazing that this was by far the most affordable extended-stay hotel we could find.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r308526404-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>308526404</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>Pay for toilet paper, crap wi-fi, and a party every night</t>
+  </si>
+  <si>
+    <t>If you'd like to stay at the world's most ghetto hotel, come to value place. Let's start here, one night, we were out of toilet paper, so we called the front desk. The front desk said they were out and we would have to wait until the next day for toilet paper. The next day came, we attempted again.This time, the toilet paper was a part of the "linen exchange" program that cost $9.87 to be a part of. The linen exchange program is a service that the hotel will wash your sheets and towels weekly, as well as give you new trash bags and toilet paper. So that being said, we found out that it is the guest's responsibility to secure their own toilet paper. I can not believe the type of hotel that doesn't have the extremely cheap toilet paper automatically provided for customers. Explain to me how toilet paper is physically a "linen" though. That's an argument for another time. This ghetto establishment has its own internet publicist ready to respond to any negative reviews. The management couldn't have acted more unprofessional, as well as the staff couldn't appear to be more unprofessional. The area manager, Nate, couldn't have treated me as a paying guest more, more unprofessionally. Just know this place is not worth it, no matter how much you save. Worst hotel experience possible.  I will never return to this hotel and neither should you....If you'd like to stay at the world's most ghetto hotel, come to value place. Let's start here, one night, we were out of toilet paper, so we called the front desk. The front desk said they were out and we would have to wait until the next day for toilet paper. The next day came, we attempted again.This time, the toilet paper was a part of the "linen exchange" program that cost $9.87 to be a part of. The linen exchange program is a service that the hotel will wash your sheets and towels weekly, as well as give you new trash bags and toilet paper. So that being said, we found out that it is the guest's responsibility to secure their own toilet paper. I can not believe the type of hotel that doesn't have the extremely cheap toilet paper automatically provided for customers. Explain to me how toilet paper is physically a "linen" though. That's an argument for another time. This ghetto establishment has its own internet publicist ready to respond to any negative reviews. The management couldn't have acted more unprofessional, as well as the staff couldn't appear to be more unprofessional. The area manager, Nate, couldn't have treated me as a paying guest more, more unprofessionally. Just know this place is not worth it, no matter how much you save. Worst hotel experience possible.  I will never return to this hotel and neither should you. One star because you couldn't pick zero.MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded October 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2015</t>
+  </si>
+  <si>
+    <t>If you'd like to stay at the world's most ghetto hotel, come to value place. Let's start here, one night, we were out of toilet paper, so we called the front desk. The front desk said they were out and we would have to wait until the next day for toilet paper. The next day came, we attempted again.This time, the toilet paper was a part of the "linen exchange" program that cost $9.87 to be a part of. The linen exchange program is a service that the hotel will wash your sheets and towels weekly, as well as give you new trash bags and toilet paper. So that being said, we found out that it is the guest's responsibility to secure their own toilet paper. I can not believe the type of hotel that doesn't have the extremely cheap toilet paper automatically provided for customers. Explain to me how toilet paper is physically a "linen" though. That's an argument for another time. This ghetto establishment has its own internet publicist ready to respond to any negative reviews. The management couldn't have acted more unprofessional, as well as the staff couldn't appear to be more unprofessional. The area manager, Nate, couldn't have treated me as a paying guest more, more unprofessionally. Just know this place is not worth it, no matter how much you save. Worst hotel experience possible.  I will never return to this hotel and neither should you....If you'd like to stay at the world's most ghetto hotel, come to value place. Let's start here, one night, we were out of toilet paper, so we called the front desk. The front desk said they were out and we would have to wait until the next day for toilet paper. The next day came, we attempted again.This time, the toilet paper was a part of the "linen exchange" program that cost $9.87 to be a part of. The linen exchange program is a service that the hotel will wash your sheets and towels weekly, as well as give you new trash bags and toilet paper. So that being said, we found out that it is the guest's responsibility to secure their own toilet paper. I can not believe the type of hotel that doesn't have the extremely cheap toilet paper automatically provided for customers. Explain to me how toilet paper is physically a "linen" though. That's an argument for another time. This ghetto establishment has its own internet publicist ready to respond to any negative reviews. The management couldn't have acted more unprofessional, as well as the staff couldn't appear to be more unprofessional. The area manager, Nate, couldn't have treated me as a paying guest more, more unprofessionally. Just know this place is not worth it, no matter how much you save. Worst hotel experience possible.  I will never return to this hotel and neither should you. One star because you couldn't pick zero.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r306078855-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>306078855</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>Denver Visit in August 2015</t>
+  </si>
+  <si>
+    <t>Very friendly staff, clean, convenient and just the basics, but we were touring most of the time and only slept there.  The area was well lit and quiet, no issues with longterm residents.  Should've thought of pans and kitchen necessities, but they were available for purchase if you wanted them.   We would stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded September 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2015</t>
+  </si>
+  <si>
+    <t>Very friendly staff, clean, convenient and just the basics, but we were touring most of the time and only slept there.  The area was well lit and quiet, no issues with longterm residents.  Should've thought of pans and kitchen necessities, but they were available for purchase if you wanted them.   We would stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r305423935-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>305423935</t>
+  </si>
+  <si>
+    <t>08/31/2015</t>
+  </si>
+  <si>
+    <t>Excellent Staff</t>
+  </si>
+  <si>
+    <t>This location were perfect  The staff    Managers, housekeepers,and maintence were excellent. These guys should be rewarded For there good work and Professionalism If they were on my staff I would reward them    Mikey, Sharteka, Deron, Mary, Gina, and WaltMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>This location were perfect  The staff    Managers, housekeepers,and maintence were excellent. These guys should be rewarded For there good work and Professionalism If they were on my staff I would reward them    Mikey, Sharteka, Deron, Mary, Gina, and WaltMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r285812679-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>285812679</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
+  </si>
+  <si>
+    <t>Not bad for a week stay</t>
+  </si>
+  <si>
+    <t>We stayed a week here and all In all it was good. I was a little irritated that upon check in my total was 40 dollars more than what I was quoted because my son had recently turned 18. Location of hotel is close to just about everything. Staff is good and the room was good. Saved money by getting a few things to eat for breakfest and dinner and just cooked in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded July 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2015</t>
+  </si>
+  <si>
+    <t>We stayed a week here and all In all it was good. I was a little irritated that upon check in my total was 40 dollars more than what I was quoted because my son had recently turned 18. Location of hotel is close to just about everything. Staff is good and the room was good. Saved money by getting a few things to eat for breakfest and dinner and just cooked in the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r285310634-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>285310634</t>
+  </si>
+  <si>
+    <t>07/03/2015</t>
+  </si>
+  <si>
+    <t>The staff that truly cares!</t>
+  </si>
+  <si>
+    <t>From moment one, we felt as if we were home. We needed to get our drivers license, and it was thanks to Shateria telling us we could use the hotel as our home address and printing out the proof we needed that we able to apply for our licenses. When we found an apartment elsewhere, DeRon promised us he would let us know when our licenses arrived, and he was true to his word! This is a place where I won't hesitate to stop in just to say hello to everyone whenever I'm in the area. Thanks to each and everyone - y'all are the best!MoreShow less</t>
+  </si>
+  <si>
+    <t>From moment one, we felt as if we were home. We needed to get our drivers license, and it was thanks to Shateria telling us we could use the hotel as our home address and printing out the proof we needed that we able to apply for our licenses. When we found an apartment elsewhere, DeRon promised us he would let us know when our licenses arrived, and he was true to his word! This is a place where I won't hesitate to stop in just to say hello to everyone whenever I'm in the area. Thanks to each and everyone - y'all are the best!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r284258729-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>284258729</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Don't stay here!</t>
+  </si>
+  <si>
+    <t>I've stayed at Value Place in six different states, this was by far the worst. Let me say that Duron, and the other people at the front desk were as helpful as they could be. There was a constant humming noise in my room (433) I never did figure out where it came from. On Friday the elevator broke it was fixed later in the day. Then Saturday afternoon it broke again the front desk said they would be out first thing Monday morning. THAT IS NOT ACCEPTABLE!!!!!! Your a four story hotel you MUST!!! have someone available 24/7 and secondly I left Monday morning at 9:00 a.m. and they still weren't even working on the elevator. I'm 60 years old and recently had knee surgery I didn't feel like climbing four floors 10 times a day not to mention having to make 10 trips on Monday morning with my belongings. To the owner/manager: if the elevator goes out I care don't if it costs $1,000 an hour it must be fixed IMMEDIATELY!!!! I saw people older then me attempting to navigate the stairs, I saw people lugging groceries and luggage up four flight of stairs. Value Place that was a poor performance on your part.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed at Value Place in six different states, this was by far the worst. Let me say that Duron, and the other people at the front desk were as helpful as they could be. There was a constant humming noise in my room (433) I never did figure out where it came from. On Friday the elevator broke it was fixed later in the day. Then Saturday afternoon it broke again the front desk said they would be out first thing Monday morning. THAT IS NOT ACCEPTABLE!!!!!! Your a four story hotel you MUST!!! have someone available 24/7 and secondly I left Monday morning at 9:00 a.m. and they still weren't even working on the elevator. I'm 60 years old and recently had knee surgery I didn't feel like climbing four floors 10 times a day not to mention having to make 10 trips on Monday morning with my belongings. To the owner/manager: if the elevator goes out I care don't if it costs $1,000 an hour it must be fixed IMMEDIATELY!!!! I saw people older then me attempting to navigate the stairs, I saw people lugging groceries and luggage up four flight of stairs. Value Place that was a poor performance on your part.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r268207832-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>268207832</t>
+  </si>
+  <si>
+    <t>04/26/2015</t>
+  </si>
+  <si>
+    <t>"Awesome staff and Great place to stay"</t>
+  </si>
+  <si>
+    <t>My fiance and I were relocated to Denver on short notice with no place to stay.  So we checked out several extended stay motels and after three hours we chose the Value Place in Aurora.  When I called to inquire about rates and availability DeRon was immediately ready to assist me with my questions and I had many.  He made our first night as great as our last.  
+When I called DeRon I inquired about the bed size and if we decided it was not a good fit could we upgrade at any time and he assured me we could.  After the first week we decided a room with two beds would be better suited for us so I called DeRon and he arranged for us to move by the end of the next day.  During our two month stay while we searched for housing, all the staff was helpful, respectful, and willing to go above and beyond their duties to assist us.  
+The housekeeping cleaned our room on time every other week and ALWAYS changed our sheets, towels etc.  When ever the staff would see us in the hall or out front they always called us by name and asked how our day was going.  Something you don't get at other motels.  The VP was always clean, internet worked everyday and ALWAYS felt safe.  When our 30 days had passed I contacted DeRon to inquire about the tax refund...My fiance and I were relocated to Denver on short notice with no place to stay.  So we checked out several extended stay motels and after three hours we chose the Value Place in Aurora.  When I called to inquire about rates and availability DeRon was immediately ready to assist me with my questions and I had many.  He made our first night as great as our last.  When I called DeRon I inquired about the bed size and if we decided it was not a good fit could we upgrade at any time and he assured me we could.  After the first week we decided a room with two beds would be better suited for us so I called DeRon and he arranged for us to move by the end of the next day.  During our two month stay while we searched for housing, all the staff was helpful, respectful, and willing to go above and beyond their duties to assist us.  The housekeeping cleaned our room on time every other week and ALWAYS changed our sheets, towels etc.  When ever the staff would see us in the hall or out front they always called us by name and asked how our day was going.  Something you don't get at other motels.  The VP was always clean, internet worked everyday and ALWAYS felt safe.  When our 30 days had passed I contacted DeRon to inquire about the tax refund and just as he had explained we got all of the taxes previously paid refunded to us.  From that day until we moved to our new apartment we were not charged any tax.  That to me is AWESOME!!!We made many life long friends with General manager' DeRon, Security manager; Ian, Property manager; Mikey, Miss Mary from housekeeping and all of the AMAZINGLY professional staff.  When we called DeRon to let him know our apartment would not be ready until Sunday and our week was up on Friday, he graciously changed us to nightly and gave us the extra time needed to move our belongings from the room.  I have to say that if we ever need temporary housing in the future, we will not hesitate to call the VP in Aurora:-)....We love and miss you all!!!  Thanks, Jerry and YvonneMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Sean A, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2015</t>
+  </si>
+  <si>
+    <t>My fiance and I were relocated to Denver on short notice with no place to stay.  So we checked out several extended stay motels and after three hours we chose the Value Place in Aurora.  When I called to inquire about rates and availability DeRon was immediately ready to assist me with my questions and I had many.  He made our first night as great as our last.  
+When I called DeRon I inquired about the bed size and if we decided it was not a good fit could we upgrade at any time and he assured me we could.  After the first week we decided a room with two beds would be better suited for us so I called DeRon and he arranged for us to move by the end of the next day.  During our two month stay while we searched for housing, all the staff was helpful, respectful, and willing to go above and beyond their duties to assist us.  
+The housekeeping cleaned our room on time every other week and ALWAYS changed our sheets, towels etc.  When ever the staff would see us in the hall or out front they always called us by name and asked how our day was going.  Something you don't get at other motels.  The VP was always clean, internet worked everyday and ALWAYS felt safe.  When our 30 days had passed I contacted DeRon to inquire about the tax refund...My fiance and I were relocated to Denver on short notice with no place to stay.  So we checked out several extended stay motels and after three hours we chose the Value Place in Aurora.  When I called to inquire about rates and availability DeRon was immediately ready to assist me with my questions and I had many.  He made our first night as great as our last.  When I called DeRon I inquired about the bed size and if we decided it was not a good fit could we upgrade at any time and he assured me we could.  After the first week we decided a room with two beds would be better suited for us so I called DeRon and he arranged for us to move by the end of the next day.  During our two month stay while we searched for housing, all the staff was helpful, respectful, and willing to go above and beyond their duties to assist us.  The housekeeping cleaned our room on time every other week and ALWAYS changed our sheets, towels etc.  When ever the staff would see us in the hall or out front they always called us by name and asked how our day was going.  Something you don't get at other motels.  The VP was always clean, internet worked everyday and ALWAYS felt safe.  When our 30 days had passed I contacted DeRon to inquire about the tax refund and just as he had explained we got all of the taxes previously paid refunded to us.  From that day until we moved to our new apartment we were not charged any tax.  That to me is AWESOME!!!We made many life long friends with General manager' DeRon, Security manager; Ian, Property manager; Mikey, Miss Mary from housekeeping and all of the AMAZINGLY professional staff.  When we called DeRon to let him know our apartment would not be ready until Sunday and our week was up on Friday, he graciously changed us to nightly and gave us the extra time needed to move our belongings from the room.  I have to say that if we ever need temporary housing in the future, we will not hesitate to call the VP in Aurora:-)....We love and miss you all!!!  Thanks, Jerry and YvonneMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r268097581-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>268097581</t>
+  </si>
+  <si>
+    <t>Good experience!</t>
+  </si>
+  <si>
+    <t>Staff was extremely helpful!  The maintenance man was knowledgeable about the area and helped point me to where I needed go, and gave me tips on where to eat.  Will stay here again next time I'm in the Denver area.  Can't beat the price combined with the service!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Staff was extremely helpful!  The maintenance man was knowledgeable about the area and helped point me to where I needed go, and gave me tips on where to eat.  Will stay here again next time I'm in the Denver area.  Can't beat the price combined with the service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r267570591-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>267570591</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>Mikey  the facility manager</t>
+  </si>
+  <si>
+    <t>Mikey is a wonderful employee and he is very helpful. When needed, he is always on time and gets the job done without fuss. Always has a great attitude and deserves a promotion/raise.  Thank you for our pleasant visit here and have a blessed day!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Mikey is a wonderful employee and he is very helpful. When needed, he is always on time and gets the job done without fuss. Always has a great attitude and deserves a promotion/raise.  Thank you for our pleasant visit here and have a blessed day!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r260339695-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>260339695</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Mrs Christy Starcher</t>
+  </si>
+  <si>
+    <t>We have stayed at Value Place several times. Both before and after the remodelling of the rooms. This  Value Place is the cleanest of all the hotels here in Aurora. The staff here is second to none. Miss Mary the housekeeper keeps this place as clean as I have seen a hotel. Always willing to help and as polite as can be. I would rate this hotel and it's staff 5 out of 5 stars. Staying here was a great choice for our family.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>We have stayed at Value Place several times. Both before and after the remodelling of the rooms. This  Value Place is the cleanest of all the hotels here in Aurora. The staff here is second to none. Miss Mary the housekeeper keeps this place as clean as I have seen a hotel. Always willing to help and as polite as can be. I would rate this hotel and it's staff 5 out of 5 stars. Staying here was a great choice for our family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r260183776-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>260183776</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>I stayed at value place for about 2 years and the staff was beyond nice! They keep the rooms clean and the facility is great condition! If something needs fixed the maintenance comes n gets fixed quick in the same day!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>I stayed at value place for about 2 years and the staff was beyond nice! They keep the rooms clean and the facility is great condition! If something needs fixed the maintenance comes n gets fixed quick in the same day!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r259836097-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>259836097</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>My stay</t>
+  </si>
+  <si>
+    <t>my stay here was very pleasant everyone was helpful but above everything Mikey one of the workers was very helpful really nice guy anytime we needed anything or anyone else did he was right there giving a helpful hand and I would come back for him he made it an extremely nice stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>my stay here was very pleasant everyone was helpful but above everything Mikey one of the workers was very helpful really nice guy anytime we needed anything or anyone else did he was right there giving a helpful hand and I would come back for him he made it an extremely nice stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r247048690-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>247048690</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>Great place, awesome people</t>
+  </si>
+  <si>
+    <t>My family and I stayed her while we're looking for an apartment after relocating. The manager, DaRon was always professional, helpful, and welcoming. I would definitely recommend that any relocaters, visitors, or travel workers stay here while in the area, they do a great job of making you feel at home.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sean A, Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded February 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2015</t>
+  </si>
+  <si>
+    <t>My family and I stayed her while we're looking for an apartment after relocating. The manager, DaRon was always professional, helpful, and welcoming. I would definitely recommend that any relocaters, visitors, or travel workers stay here while in the area, they do a great job of making you feel at home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r241028497-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>241028497</t>
+  </si>
+  <si>
+    <t>11/22/2014</t>
+  </si>
+  <si>
+    <t>I highly recommend</t>
+  </si>
+  <si>
+    <t>Very Nice Stay! Great Staff--Especially DJ at the Front Desk!Our room was clean, quiet and comfortable. I stayed here 1 week and will Def stay here again if needed. Thanks Value Place and Thanks a ton goes to DJ! You rock!-RobertMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Very Nice Stay! Great Staff--Especially DJ at the Front Desk!Our room was clean, quiet and comfortable. I stayed here 1 week and will Def stay here again if needed. Thanks Value Place and Thanks a ton goes to DJ! You rock!-RobertMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r237322471-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>237322471</t>
+  </si>
+  <si>
+    <t>10/31/2014</t>
+  </si>
+  <si>
+    <t>Positive Hotel Experience</t>
+  </si>
+  <si>
+    <t>My family had the experience of staying.  It was safe, rooms were in excellent condition, it was a positive environment.  Anything we needed from staff was provided.  The service was great.  I would also state that both staff, D.J. and Mary from Housekeeping plays a key role to the amazing customer service of the building.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>My family had the experience of staying.  It was safe, rooms were in excellent condition, it was a positive environment.  Anything we needed from staff was provided.  The service was great.  I would also state that both staff, D.J. and Mary from Housekeeping plays a key role to the amazing customer service of the building.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r234795529-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>234795529</t>
+  </si>
+  <si>
+    <t>10/16/2014</t>
+  </si>
+  <si>
+    <t>By far the best stay we have had!</t>
+  </si>
+  <si>
+    <t>The motel is the best we have stayed at in Colorado. The front staff is wonderful, DJ is awesome he always went above and beyond for the guest very friendly and took the time to help everyone with a smile! Would definatley stay here again! Our 3 boys made friends and also had a great stay!! The Manager was wonderful too if we had a problem he was on it immediately these guys are awesome!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>The motel is the best we have stayed at in Colorado. The front staff is wonderful, DJ is awesome he always went above and beyond for the guest very friendly and took the time to help everyone with a smile! Would definatley stay here again! Our 3 boys made friends and also had a great stay!! The Manager was wonderful too if we had a problem he was on it immediately these guys are awesome!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r234436828-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>234436828</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Nice place,nice people!</t>
+  </si>
+  <si>
+    <t>I have been staying at Value Place in Aurora for the past month and I really like it.Everyone is very nice and the place is always clean.I highly recommend this hotel especially if you have kids.Value Place is super safe and staff is always available when needed especially Dj.Dj is a very nice young man that works here.He is so helpful and always has a smile on his face!I truly appreciate him.One time the elevator was down and Dj saw me coming with my twins,3 year old and groceries and he helped me carry my twins and stroller to the 2nd Floor without me even asking.That was super nice of him,he went the extra mile to help me and I am really thankful for that.We need more people like Dj in this world.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>I have been staying at Value Place in Aurora for the past month and I really like it.Everyone is very nice and the place is always clean.I highly recommend this hotel especially if you have kids.Value Place is super safe and staff is always available when needed especially Dj.Dj is a very nice young man that works here.He is so helpful and always has a smile on his face!I truly appreciate him.One time the elevator was down and Dj saw me coming with my twins,3 year old and groceries and he helped me carry my twins and stroller to the 2nd Floor without me even asking.That was super nice of him,he went the extra mile to help me and I am really thankful for that.We need more people like Dj in this world.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r218601199-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>218601199</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We came to Aurora with our two young grandsons for a family visit.  Value Place was clean very, affordable and the having a kitchen was great. It's located very close to a large mall and Target and lots of restaurants.  The beds were not the most comfortable, but were ok for a week. We will stay there again.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r206674258-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>206674258</t>
+  </si>
+  <si>
+    <t>05/22/2014</t>
+  </si>
+  <si>
+    <t>You get what you pay for.</t>
+  </si>
+  <si>
+    <t>This place has a good location not far from downtown Denver. I did encounter a clean lobby and  fantastically newly remodeled rooms. The staff was not used to having business customers shown by the way the handled business. They called me three times to confirm that I was still coming. As a non-smoker having people smoking right outside the entrance was difficult. Every Friday night the club across the street in the shopping center becomes a loud distraction. You may want to plan on spending Friday nights out of your room.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r204717573-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>204717573</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>Great crew</t>
+  </si>
+  <si>
+    <t>Staying at the Value Place was abominable,  but the people there made it tolerable.  Thanks to DaRon, Kate, and the housekeeping.   Thank You all for being awesome.  The rooms were modern, they had nice flat screens, and the beds were comfortable.  The staff goes out of the way to make their guests feel welcomed.  That is only the staff at THAT property.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r203537382-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>203537382</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>awesome staff</t>
+  </si>
+  <si>
+    <t>I have stayed at the Value Place in aurora CO for almost two years and I must say that on the whole the staff is excellent!! Every small issue that I had was taken care of in a timely matter. Some staff that really deserve honorable mention are Ian, Kate, Mary, Cory, and Pat. They have made my stay feel more homey and comfortable, they have acted in the most professional matter on all terms with me and my family. I would honestly recommend this establishment for a small family for an extended stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r159746311-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>159746311</t>
+  </si>
+  <si>
+    <t>05/05/2013</t>
+  </si>
+  <si>
+    <t>Internet sucks, shower sucks, filled with undesireables</t>
+  </si>
+  <si>
+    <t>Took me 10 minutes to be able to write this review on their internet. 6-10kbps at best. Shower is crap, doesn't get above room temperature. TV is tiny and no extra channels. Elevator is slow. One of the worst places i have stayed, especially for the price. Will never be coming back to one of these again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded May 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2013</t>
+  </si>
+  <si>
+    <t>Took me 10 minutes to be able to write this review on their internet. 6-10kbps at best. Shower is crap, doesn't get above room temperature. TV is tiny and no extra channels. Elevator is slow. One of the worst places i have stayed, especially for the price. Will never be coming back to one of these again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r136539542-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>136539542</t>
+  </si>
+  <si>
+    <t>08/07/2012</t>
+  </si>
+  <si>
+    <t>No Internet Speed</t>
+  </si>
+  <si>
+    <t>I've stayed at all 3 Value Places in Colorado and they all toot "High Speed Internet", seriously that's a lie!!!! They don't have WIFI. I have a very fast and new laptop and even using there Ethernet cable, I could take a nap between the time it takes me to wait for web pages to open, even at 3:00 AM when people are sleeping so it's not a time everyone is on. In fact it took me 3 days at all hours for someone in the office to even tell me how to log on the internet, ironically no one was familiar with how to use a computer and apparently each location is different, but the one thing that's the same at all value places is that it's very.....slow     speed..... internet. So for all business travelers go somewhere else.!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>I've stayed at all 3 Value Places in Colorado and they all toot "High Speed Internet", seriously that's a lie!!!! They don't have WIFI. I have a very fast and new laptop and even using there Ethernet cable, I could take a nap between the time it takes me to wait for web pages to open, even at 3:00 AM when people are sleeping so it's not a time everyone is on. In fact it took me 3 days at all hours for someone in the office to even tell me how to log on the internet, ironically no one was familiar with how to use a computer and apparently each location is different, but the one thing that's the same at all value places is that it's very.....slow     speed..... internet. So for all business travelers go somewhere else.!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r134778991-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>134778991</t>
+  </si>
+  <si>
+    <t>07/18/2012</t>
+  </si>
+  <si>
+    <t>BED BUGS  AND RUDENESS</t>
+  </si>
+  <si>
+    <t>my family was staying here until they found a new place to live. so my brother in law called my sister and told her that he found a bed bug on my nephew. he was about to put the bedding out of their room and one of the worker yelled about him and said that why are you trying to infect the whole building. so my sister and i got back to to the room and we found a the bed bug in the sheets that my brother in law said.  the staff dont care about the bed bugs and other people that are living here to us that they found bed bugs in their room. bruce is rude and dont care if someone has a medical problem my sister has to have a assistance dog because of her health and bruce  said that my sister dog cant be their assistance dog. NEVER GO HERE BED BUGS PLEASE WATCH OUT. HERE IS A PICTURE OF WHAT WE FOUNDMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>my family was staying here until they found a new place to live. so my brother in law called my sister and told her that he found a bed bug on my nephew. he was about to put the bedding out of their room and one of the worker yelled about him and said that why are you trying to infect the whole building. so my sister and i got back to to the room and we found a the bed bug in the sheets that my brother in law said.  the staff dont care about the bed bugs and other people that are living here to us that they found bed bugs in their room. bruce is rude and dont care if someone has a medical problem my sister has to have a assistance dog because of her health and bruce  said that my sister dog cant be their assistance dog. NEVER GO HERE BED BUGS PLEASE WATCH OUT. HERE IS A PICTURE OF WHAT WE FOUNDMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r122552478-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>122552478</t>
+  </si>
+  <si>
+    <t>01/04/2012</t>
+  </si>
+  <si>
+    <t>Seedy Characters and about as far from "Family Friendly" as you can get!</t>
+  </si>
+  <si>
+    <t>They charge $100 security fee and require 1 day advance written notice plus, plus, plus to get it back. As difficult as they make it, it seems like they have no intention of refunding it. Seedy characters on site. About as far from family friendly as you can get. I could not wait to leave. Also the model room they show you is nothing like the actual room!. AWFUL experience. Rude staff. No pots or pans in the kitchens either.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r118866267-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>118866267</t>
+  </si>
+  <si>
+    <t>10/02/2011</t>
+  </si>
+  <si>
+    <t>Good, secure, basic long-term lodging</t>
+  </si>
+  <si>
+    <t>Good, secure, basic long-term lodging.  Emphasis on basic.  But inexpensive, clean, and in good condition.  Get 4th floor if you can. Floors above can be noisy. Arrive during business hours if you can.  If not, security can come down and check you in if you have a reservation, but takes lots longer.  Bring your own kitchen stuff (pots pans, cooking utensils cups, plates). Can purchase here cheap, but why if you have them. If you're on a budget, are staying long term, and don't mind basic, this is the place.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r58766074-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>58766074</t>
+  </si>
+  <si>
+    <t>03/16/2010</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>value your life and stay away !!!! No cleaning, rude staff, nightly noise, loud</t>
+  </si>
+  <si>
+    <t>March 2010</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1664,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1696,3352 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>75</v>
+      </c>
+      <c r="X6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>124</v>
+      </c>
+      <c r="X11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>140</v>
+      </c>
+      <c r="X13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>149</v>
+      </c>
+      <c r="X14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>149</v>
+      </c>
+      <c r="X15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>132</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>163</v>
+      </c>
+      <c r="X16" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s">
+        <v>170</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>171</v>
+      </c>
+      <c r="O17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>172</v>
+      </c>
+      <c r="X17" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>171</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>172</v>
+      </c>
+      <c r="X18" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s">
+        <v>184</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>172</v>
+      </c>
+      <c r="X19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" t="s">
+        <v>189</v>
+      </c>
+      <c r="L20" t="s">
+        <v>190</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>191</v>
+      </c>
+      <c r="O20" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>192</v>
+      </c>
+      <c r="X20" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" t="s">
+        <v>199</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>200</v>
+      </c>
+      <c r="O21" t="s">
+        <v>99</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>192</v>
+      </c>
+      <c r="X21" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" t="s">
+        <v>206</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>207</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>208</v>
+      </c>
+      <c r="X22" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" t="s">
+        <v>213</v>
+      </c>
+      <c r="K23" t="s">
+        <v>214</v>
+      </c>
+      <c r="L23" t="s">
+        <v>215</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>216</v>
+      </c>
+      <c r="O23" t="s">
+        <v>99</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>217</v>
+      </c>
+      <c r="X23" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" t="s">
+        <v>213</v>
+      </c>
+      <c r="K24" t="s">
+        <v>222</v>
+      </c>
+      <c r="L24" t="s">
+        <v>223</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>207</v>
+      </c>
+      <c r="O24" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>217</v>
+      </c>
+      <c r="X24" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>226</v>
+      </c>
+      <c r="J25" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" t="s">
+        <v>228</v>
+      </c>
+      <c r="L25" t="s">
+        <v>229</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>230</v>
+      </c>
+      <c r="O25" t="s">
+        <v>84</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>231</v>
+      </c>
+      <c r="X25" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J26" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" t="s">
+        <v>237</v>
+      </c>
+      <c r="L26" t="s">
+        <v>238</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>230</v>
+      </c>
+      <c r="O26" t="s">
+        <v>91</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>239</v>
+      </c>
+      <c r="X26" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>243</v>
+      </c>
+      <c r="J27" t="s">
+        <v>244</v>
+      </c>
+      <c r="K27" t="s">
+        <v>245</v>
+      </c>
+      <c r="L27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>247</v>
+      </c>
+      <c r="O27" t="s">
+        <v>68</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>248</v>
+      </c>
+      <c r="X27" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>251</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>252</v>
+      </c>
+      <c r="J28" t="s">
+        <v>253</v>
+      </c>
+      <c r="K28" t="s">
+        <v>254</v>
+      </c>
+      <c r="L28" t="s">
+        <v>255</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>256</v>
+      </c>
+      <c r="O28" t="s">
+        <v>99</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>248</v>
+      </c>
+      <c r="X28" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>259</v>
+      </c>
+      <c r="J29" t="s">
+        <v>260</v>
+      </c>
+      <c r="K29" t="s">
+        <v>261</v>
+      </c>
+      <c r="L29" t="s">
+        <v>262</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>256</v>
+      </c>
+      <c r="O29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>263</v>
+      </c>
+      <c r="X29" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>266</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>267</v>
+      </c>
+      <c r="J30" t="s">
+        <v>268</v>
+      </c>
+      <c r="K30" t="s">
+        <v>269</v>
+      </c>
+      <c r="L30" t="s">
+        <v>270</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>263</v>
+      </c>
+      <c r="X30" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>272</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>273</v>
+      </c>
+      <c r="J31" t="s">
+        <v>274</v>
+      </c>
+      <c r="K31" t="s">
+        <v>275</v>
+      </c>
+      <c r="L31" t="s">
+        <v>276</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>216</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>263</v>
+      </c>
+      <c r="X31" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>278</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>279</v>
+      </c>
+      <c r="J32" t="s">
+        <v>280</v>
+      </c>
+      <c r="K32" t="s">
+        <v>281</v>
+      </c>
+      <c r="L32" t="s">
+        <v>282</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>283</v>
+      </c>
+      <c r="O32" t="s">
+        <v>99</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>284</v>
+      </c>
+      <c r="X32" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>287</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>288</v>
+      </c>
+      <c r="J33" t="s">
+        <v>280</v>
+      </c>
+      <c r="K33" t="s">
+        <v>289</v>
+      </c>
+      <c r="L33" t="s">
+        <v>290</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>291</v>
+      </c>
+      <c r="O33" t="s">
+        <v>68</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>284</v>
+      </c>
+      <c r="X33" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>293</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>294</v>
+      </c>
+      <c r="J34" t="s">
+        <v>295</v>
+      </c>
+      <c r="K34" t="s">
+        <v>296</v>
+      </c>
+      <c r="L34" t="s">
+        <v>297</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>291</v>
+      </c>
+      <c r="O34" t="s">
+        <v>99</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>284</v>
+      </c>
+      <c r="X34" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>299</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>300</v>
+      </c>
+      <c r="J35" t="s">
+        <v>301</v>
+      </c>
+      <c r="K35" t="s">
+        <v>302</v>
+      </c>
+      <c r="L35" t="s">
+        <v>303</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>304</v>
+      </c>
+      <c r="O35" t="s">
+        <v>68</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>284</v>
+      </c>
+      <c r="X35" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>306</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>307</v>
+      </c>
+      <c r="J36" t="s">
+        <v>308</v>
+      </c>
+      <c r="K36" t="s">
+        <v>309</v>
+      </c>
+      <c r="L36" t="s">
+        <v>310</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>311</v>
+      </c>
+      <c r="O36" t="s">
+        <v>68</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>284</v>
+      </c>
+      <c r="X36" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>313</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>314</v>
+      </c>
+      <c r="J37" t="s">
+        <v>315</v>
+      </c>
+      <c r="K37" t="s">
+        <v>316</v>
+      </c>
+      <c r="L37" t="s">
+        <v>317</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>304</v>
+      </c>
+      <c r="O37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>284</v>
+      </c>
+      <c r="X37" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>319</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>320</v>
+      </c>
+      <c r="J38" t="s">
+        <v>321</v>
+      </c>
+      <c r="K38" t="s">
+        <v>322</v>
+      </c>
+      <c r="L38" t="s">
+        <v>323</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>324</v>
+      </c>
+      <c r="X38" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>327</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>328</v>
+      </c>
+      <c r="J39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K39" t="s">
+        <v>330</v>
+      </c>
+      <c r="L39" t="s">
+        <v>331</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>332</v>
+      </c>
+      <c r="O39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>324</v>
+      </c>
+      <c r="X39" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>334</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>335</v>
+      </c>
+      <c r="J40" t="s">
+        <v>336</v>
+      </c>
+      <c r="K40" t="s">
+        <v>337</v>
+      </c>
+      <c r="L40" t="s">
+        <v>338</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>339</v>
+      </c>
+      <c r="O40" t="s">
+        <v>68</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>324</v>
+      </c>
+      <c r="X40" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>341</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>342</v>
+      </c>
+      <c r="J41" t="s">
+        <v>343</v>
+      </c>
+      <c r="K41" t="s">
+        <v>344</v>
+      </c>
+      <c r="L41" t="s">
+        <v>345</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>324</v>
+      </c>
+      <c r="X41" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>347</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>348</v>
+      </c>
+      <c r="J42" t="s">
+        <v>349</v>
+      </c>
+      <c r="K42" t="s">
+        <v>350</v>
+      </c>
+      <c r="L42" t="s">
+        <v>351</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>352</v>
+      </c>
+      <c r="O42" t="s">
+        <v>68</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>324</v>
+      </c>
+      <c r="X42" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>354</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>355</v>
+      </c>
+      <c r="J43" t="s">
+        <v>356</v>
+      </c>
+      <c r="K43" t="s">
+        <v>357</v>
+      </c>
+      <c r="L43" t="s">
+        <v>358</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>359</v>
+      </c>
+      <c r="O43" t="s">
+        <v>68</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>360</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>361</v>
+      </c>
+      <c r="J44" t="s">
+        <v>362</v>
+      </c>
+      <c r="K44" t="s">
+        <v>363</v>
+      </c>
+      <c r="L44" t="s">
+        <v>364</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>365</v>
+      </c>
+      <c r="O44" t="s">
+        <v>99</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>366</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>367</v>
+      </c>
+      <c r="J45" t="s">
+        <v>368</v>
+      </c>
+      <c r="K45" t="s">
+        <v>369</v>
+      </c>
+      <c r="L45" t="s">
+        <v>370</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>311</v>
+      </c>
+      <c r="O45" t="s">
+        <v>99</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>371</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>372</v>
+      </c>
+      <c r="J46" t="s">
+        <v>373</v>
+      </c>
+      <c r="K46" t="s">
+        <v>374</v>
+      </c>
+      <c r="L46" t="s">
+        <v>375</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>311</v>
+      </c>
+      <c r="O46" t="s">
+        <v>68</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>376</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>377</v>
+      </c>
+      <c r="J47" t="s">
+        <v>378</v>
+      </c>
+      <c r="K47" t="s">
+        <v>379</v>
+      </c>
+      <c r="L47" t="s">
+        <v>380</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>381</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>382</v>
+      </c>
+      <c r="X47" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>385</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>386</v>
+      </c>
+      <c r="J48" t="s">
+        <v>387</v>
+      </c>
+      <c r="K48" t="s">
+        <v>388</v>
+      </c>
+      <c r="L48" t="s">
+        <v>389</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>390</v>
+      </c>
+      <c r="O48" t="s">
+        <v>99</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>392</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>393</v>
+      </c>
+      <c r="J49" t="s">
+        <v>394</v>
+      </c>
+      <c r="K49" t="s">
+        <v>395</v>
+      </c>
+      <c r="L49" t="s">
+        <v>396</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>397</v>
+      </c>
+      <c r="O49" t="s">
+        <v>68</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>399</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>400</v>
+      </c>
+      <c r="J50" t="s">
+        <v>401</v>
+      </c>
+      <c r="K50" t="s">
+        <v>402</v>
+      </c>
+      <c r="L50" t="s">
+        <v>403</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>404</v>
+      </c>
+      <c r="O50" t="s">
+        <v>68</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>405</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>406</v>
+      </c>
+      <c r="J51" t="s">
+        <v>407</v>
+      </c>
+      <c r="K51" t="s">
+        <v>408</v>
+      </c>
+      <c r="L51" t="s">
+        <v>409</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>410</v>
+      </c>
+      <c r="O51" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>411</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>412</v>
+      </c>
+      <c r="J52" t="s">
+        <v>413</v>
+      </c>
+      <c r="K52" t="s">
+        <v>414</v>
+      </c>
+      <c r="L52" t="s">
+        <v>415</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>416</v>
+      </c>
+      <c r="O52" t="s">
+        <v>84</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_284.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_284.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="658">
   <si>
     <t>STR#</t>
   </si>
@@ -147,18 +147,87 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/05/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r607206975-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>29144</t>
+  </si>
+  <si>
+    <t>1156926</t>
+  </si>
+  <si>
+    <t>607206975</t>
+  </si>
+  <si>
+    <t>August 16, 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r570757317-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>570757317</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>420 Friendly</t>
+  </si>
+  <si>
+    <t>Looking for an extended stay, pet friendly, AND 420 friendly? This is it. Not expensive and Hannah at the front desk was extremely helpful, helping us make the most of our visit to Aurora. We will definitely stay here again! MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations at WoodSpring Suites Denver Aurora, responded to this reviewResponded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Looking for an extended stay, pet friendly, AND 420 friendly? This is it. Not expensive and Hannah at the front desk was extremely helpful, helping us make the most of our visit to Aurora. We will definitely stay here again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r567991538-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>567991538</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Awesome stay</t>
+  </si>
+  <si>
+    <t>I stayed for a total of 3 months at this hotel and was extremely impressed with how clean the room was, the staff was very helpful and polite with a special shout out to DaRon.   They made positive changes while I stayed such as new beds and the rooms are newly painted.  I will be sure to stay here next time I am here.  Oh I need to also mention they are very pet friendly which was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Jason A, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2018</t>
+  </si>
+  <si>
+    <t>I stayed for a total of 3 months at this hotel and was extremely impressed with how clean the room was, the staff was very helpful and polite with a special shout out to DaRon.   They made positive changes while I stayed such as new beds and the rooms are newly painted.  I will be sure to stay here next time I am here.  Oh I need to also mention they are very pet friendly which was nice.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r566986013-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
-    <t>29144</t>
-  </si>
-  <si>
-    <t>1156926</t>
-  </si>
-  <si>
     <t>566986013</t>
   </si>
   <si>
@@ -177,6 +246,12 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Julia R, Guest Relations at WoodSpring Suites Denver Aurora, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
     <t>-  Stayed  30+ days at this Well Managed, Quality and Clean hotel.  Been staying at this hotel for a couple of years.-  Quick check-In and check-out:  Professional and helpful front desk staff-  Rooms  are very clean with a 2 burner stove in Kitchen area -  Comfortable bed, LED TV and a table with 2 chairs.-  Pet friendly hotel, quiet atmosphere, amazingly I didn't hear any of the dogs barking while staying at the hotel.-  good secure entry doors- Free Wifi, Very Strong-  Close to Buckley AFB, Super Target Open Mall area and the Aurora Mall.I was very happy with my room and the services that the hotel provided.  I  will definitely book again when I stay in aurora.More</t>
   </si>
   <si>
@@ -228,6 +303,54 @@
     <t>If you are looking for the best deal on a weekly/monthly rate in the Denver &amp; Aurora then look no further - you've found it!I give this review 5 stars simply because every major criteria I look for in lodging, Woodspring Suites has gone above and beyond!Customer Service: The staff at Woodspring are all so very friendly and professionals in the field. The General Manager is doing an outstanding job with staffing and accommodations, he definitely cares about the facility and guest satisfaction!Rooms: The rooms are clean and well equipped, additional amenities are available if needed and the comfort of the beds I was quite satisfied with. Grounds: The hotel has a spacious guest laundry room, the outside grounds are well maintained and they are very pet friendly!Location: Coveniently located near tons of shops, a mall, grocery, Wal-Mart, restaurants, gas stations, bus and light-rail access within a mile radius!Simply put, I highly recommend this location over any other extended stay hotel in the Denver Metro area, I am ultra satisfied!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r561369550-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>561369550</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>Friendly staff, quiet</t>
+  </si>
+  <si>
+    <t>I booked an extended stay for the month of January through the middle of February. The room rates were great, and the staff have great customer service. Always welcomed me when I came in and asked how I was doing everyday. The place is also surprisingly quiet since it's right by the interstate. I would definitely stay here again. The only problem I had with the place is the elevator is extremely slow, use the stairs.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>I booked an extended stay for the month of January through the middle of February. The room rates were great, and the staff have great customer service. Always welcomed me when I came in and asked how I was doing everyday. The place is also surprisingly quiet since it's right by the interstate. I would definitely stay here again. The only problem I had with the place is the elevator is extremely slow, use the stairs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r557573048-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>557573048</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I left my home of 35 years to re locate here in Co...the staff here, especially Da Ron Porter, were my first friendly faces. Always cheerful, always helpful with everything including directions. Our first stay was in May 2017. We moved on and due to a job change, we had to come back toward Denver to find a permanent home. I suggested to my husband that we come back here to WoodSrings in Aurora, until we find a home. Once again,we are having a great stay. The staff does a wonderful job with maintaining a great place to stay. They all have patience with me and all my questions. I have truly found a great in between homes home and Da Ron does a great job! I would recommend staying here to anyone. Thanks to everyone here for making my transition this year easier than I thought it would be. Pet freindly...clean...and well stocked with anything Ive needed. House keeping and maintinance do a great job! Donna ToshMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Jason A, Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded February 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2018</t>
+  </si>
+  <si>
+    <t>I left my home of 35 years to re locate here in Co...the staff here, especially Da Ron Porter, were my first friendly faces. Always cheerful, always helpful with everything including directions. Our first stay was in May 2017. We moved on and due to a job change, we had to come back toward Denver to find a permanent home. I suggested to my husband that we come back here to WoodSrings in Aurora, until we find a home. Once again,we are having a great stay. The staff does a wonderful job with maintaining a great place to stay. They all have patience with me and all my questions. I have truly found a great in between homes home and Da Ron does a great job! I would recommend staying here to anyone. Thanks to everyone here for making my transition this year easier than I thought it would be. Pet freindly...clean...and well stocked with anything Ive needed. House keeping and maintinance do a great job! Donna ToshMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r540534129-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -270,9 +393,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>fair value.  Reminded me of a suite style Motel ^.  Room had everything required but what was provided was basic (not pretty but functional). I don't have anything else to say, but site wants more characters added..More</t>
   </si>
   <si>
@@ -297,6 +417,60 @@
     <t>We arrived at 1:30, was told they did not have any rooms cleaned, magically at 3, all rooms were ready, all at one time. We arrive in the room and the sheets are dingy and discolored, the floor has hair and dust on it, I do not think they clean the rooms at all. There are absolutely no amenities, no hand soup, shampoo, lotion, nothing. Hotel staff is not very warm, or welcoming, had an attitude anytime they were asked a question. I forgot something in the hotel and when I called, at 2, they said they haven't cleaned the room. So, I called back, they hung-up. When I called back, she said she checked the room when we got disconnected, well I had called right back after being hung-up on, so there is no way she actually checked, the room is on the 2nd floor at the end of the hall, even with stairs you wouldn't get there in 30 seconds. So, no, I will not be staying here again, I do not trust the staff, they do not seem to clean, or have any kind of hospitality. Save yourself the hassle and stay somewhere else.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r521882848-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>521882848</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>Great place to stay. General manager is awesome and is always here. So much nicer then all the other extended stay motels I've stayed. Clean and secure. No one messes with your vehicle here! The staff is great and prompt about getting things done from I've seen. Haven't ad any problems with smokers or people getting rowdy.  MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded September 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2017</t>
+  </si>
+  <si>
+    <t>Great place to stay. General manager is awesome and is always here. So much nicer then all the other extended stay motels I've stayed. Clean and secure. No one messes with your vehicle here! The staff is great and prompt about getting things done from I've seen. Haven't ad any problems with smokers or people getting rowdy.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r507446926-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>507446926</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place </t>
+  </si>
+  <si>
+    <t>This is a very friendly atmosphere the staff is very considerate and helpful hats off to the employees for caring and working extremely hard the time I stayed was very enjoyable .There is weed smell but hey it's Colorado where it's legal . Very inexpensive for a weeks stay MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2017</t>
+  </si>
+  <si>
+    <t>This is a very friendly atmosphere the staff is very considerate and helpful hats off to the employees for caring and working extremely hard the time I stayed was very enjoyable .There is weed smell but hey it's Colorado where it's legal . Very inexpensive for a weeks stay More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r503291447-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -312,18 +486,6 @@
     <t>Clean, newly updated studio efficiency with mini-kitchen, frig, and micro-wave.  Since I prefer to prepare my own healthy food choices and save money this was perfect for me!I had to have a large USPS box delivered to this address while I was out working in downtown and the front desk signed for it when it was delivered and put it behind the front desk until I returned that evening.  It was safe and unopened when I got back to the hotel that evening however, the luggage cart was in use somewhere else in the hotel so I was unable to lift this large/heavy box.  Fortunately, the evening attendant Mr. Ian K. was more than thoughtful ,kind and courteous to hand carry it up to my room without my asking him to do so.  Give this employee a raise he's a dedicated employee.  Thank you Ian I appreciate your helpful service, your also a gentleman.Guest- Jennifer P.C., Oklahoma City, OKMoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded August 1, 2017</t>
-  </si>
-  <si>
-    <t>Responded August 1, 2017</t>
-  </si>
-  <si>
     <t>Clean, newly updated studio efficiency with mini-kitchen, frig, and micro-wave.  Since I prefer to prepare my own healthy food choices and save money this was perfect for me!I had to have a large USPS box delivered to this address while I was out working in downtown and the front desk signed for it when it was delivered and put it behind the front desk until I returned that evening.  It was safe and unopened when I got back to the hotel that evening however, the luggage cart was in use somewhere else in the hotel so I was unable to lift this large/heavy box.  Fortunately, the evening attendant Mr. Ian K. was more than thoughtful ,kind and courteous to hand carry it up to my room without my asking him to do so.  Give this employee a raise he's a dedicated employee.  Thank you Ian I appreciate your helpful service, your also a gentleman.Guest- Jennifer P.C., Oklahoma City, OKMore</t>
   </si>
   <si>
@@ -372,6 +534,54 @@
     <t>Upon check in I was told that the room I reserved ( a suite with two queen beds, to accommodate two adults and two adult sized teenagers) was unavailable due to other long term guests extending their stay.  Nothing was offered in apology to correct the issue except, either purchase another room or go buy an air mattress.  No offer to discount our stay.  Then she had the nerve to say, they don't guarantee you will get the type of room you request, but just any room that's available.  She did say we could purchase a separate room for the same price!  At you kidding me!!  They screw up, don't bother to call, and then expect us to happily fork over another $600 bucks for the week??  No way.  If there was anything else available in this town for the week, we would be gone.  Instead we had to drive and purchase an air mattress so that our kids don't have to sleep on the dirty linoleum floor.  So disgusted with this place!!  I do not recommend at all. If I could have left a 0 rating I would have.  Honestly, if it weren't for the terrible service and the overbooking this would have been a decent place to stay for the week.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r479772018-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>479772018</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>This is my second review.  I posted one last week, but it was removed.Small problems were addressed immediately and fixed/solved within a half hours time!  The manager and staff are friendly, courteous and efficient.  The site is close to the major roadway and public transportation.  The surrounding area is not the best, but this place makes up for it.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2017</t>
+  </si>
+  <si>
+    <t>This is my second review.  I posted one last week, but it was removed.Small problems were addressed immediately and fixed/solved within a half hours time!  The manager and staff are friendly, courteous and efficient.  The site is close to the major roadway and public transportation.  The surrounding area is not the best, but this place makes up for it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r479142331-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>479142331</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Best bang for your buck</t>
+  </si>
+  <si>
+    <t>If you are looking for a place to stay that is inexpensive, not fancy, but has the basics... this is the place. Has a full size refrigerator, microwave and cooktop.  You can pick up bowl, utensils at the dollar store or the Super Target (short drive to Target, mall and multiple businesses, bank,bookstore,haircutters..etc.) Denny's restaurant is walking distance as well as gas stations and McDonalds (across the street and hidden unless you are looking for it). The place will sell you cookware if you need it, you keep it when you are done. The manager runs it well and will take care of any concern immediately. You need a room key to get into the hallway where the rooms are so it is much safer than the rooms that have the doors on the outside of the building. Pet friendly, no carpet just faux wood flooring. Self serve laundry, no exercise room or pool but it is the best price extended stay you will find. I believe you will have some long term residents there as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>If you are looking for a place to stay that is inexpensive, not fancy, but has the basics... this is the place. Has a full size refrigerator, microwave and cooktop.  You can pick up bowl, utensils at the dollar store or the Super Target (short drive to Target, mall and multiple businesses, bank,bookstore,haircutters..etc.) Denny's restaurant is walking distance as well as gas stations and McDonalds (across the street and hidden unless you are looking for it). The place will sell you cookware if you need it, you keep it when you are done. The manager runs it well and will take care of any concern immediately. You need a room key to get into the hallway where the rooms are so it is much safer than the rooms that have the doors on the outside of the building. Pet friendly, no carpet just faux wood flooring. Self serve laundry, no exercise room or pool but it is the best price extended stay you will find. I believe you will have some long term residents there as well.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r471939753-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -387,9 +597,6 @@
     <t>Great Hotel, reasonable price and great staff.  Clean rooms and convenient location.  Public transportation nearby.  Route 225 and airport close by,  Shopping center close by.  Near air force base. Convenient, convenient, convenient.MoreShow less</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded April 12, 2017</t>
   </si>
   <si>
@@ -447,15 +654,54 @@
     <t>I had to stay here for a while and the manager Daron and his staff was awesome. Stayed on the 4th floor and never had a major problem any small ones were taken care of quickly, the hotel is clean close to bus stops, the mall, light rail, grocery stores. I want to thank deron, mary, shanteri, ion, and Walter for making my extended stay there comfortable. Thanks. Ronnie B.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r456060295-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>456060295</t>
+  </si>
+  <si>
+    <t>01/30/2017</t>
+  </si>
+  <si>
+    <t>GREAT LOCATION</t>
+  </si>
+  <si>
+    <t>This hotel has a great location near the highway. Along with that there staff was awesome.....great hospitality. It felt like home, which comes along with a microwave and burners and stores close by. I highly recommend this location under any circumstances.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2017</t>
+  </si>
+  <si>
+    <t>This hotel has a great location near the highway. Along with that there staff was awesome.....great hospitality. It felt like home, which comes along with a microwave and burners and stores close by. I highly recommend this location under any circumstances.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r455971887-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>455971887</t>
+  </si>
+  <si>
+    <t>The cleanest hotel I've ever stayed at!</t>
+  </si>
+  <si>
+    <t>The electronic sign on the building advertised a weekly rate no other hotel in town could touch, so we made a reservation for the next day.  Check-in was fast, friendly and with a smile.  Our single-bed suite is spacious with all wood flooring- no dirty, smelly carpeting here!  It has a 32" flat-screen TV, full-size fridge, full-size sink, 2-burner cooktop with full-size, lighted venthood, lower and upper cabinets with mounted microwave. The room and everything in it was so clean it looked like new...not a spec of dust or dirt anywhere!  The room is well-lit, the bed is super comfy, and the outside environment is quiet and also very clean. The staff and management obviously work very hard at making Woodspring Suites the best deal in the Denver/Aurora area.MoreShow less</t>
+  </si>
+  <si>
+    <t>The electronic sign on the building advertised a weekly rate no other hotel in town could touch, so we made a reservation for the next day.  Check-in was fast, friendly and with a smile.  Our single-bed suite is spacious with all wood flooring- no dirty, smelly carpeting here!  It has a 32" flat-screen TV, full-size fridge, full-size sink, 2-burner cooktop with full-size, lighted venthood, lower and upper cabinets with mounted microwave. The room and everything in it was so clean it looked like new...not a spec of dust or dirt anywhere!  The room is well-lit, the bed is super comfy, and the outside environment is quiet and also very clean. The staff and management obviously work very hard at making Woodspring Suites the best deal in the Denver/Aurora area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r455955114-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
     <t>455955114</t>
   </si>
   <si>
-    <t>01/30/2017</t>
-  </si>
-  <si>
     <t>Clean, economical and safe!</t>
   </si>
   <si>
@@ -465,12 +711,6 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded February 13, 2017</t>
-  </si>
-  <si>
-    <t>Responded February 13, 2017</t>
-  </si>
-  <si>
     <t>I stayed here from Jan 2 - 13, 2017. It has a large clean bathroom, with a shelf to place toiletries; a two burner cooktop, full size fridge and large sink with ample cabinetry; comfortable bed and pillows; great flat screen tv with good selection of channels and free wifi. The water is hot and ample. Noise was minimal... sound carries, but I've been in high end chains with the same issue and it is negligible here. The staff is friendly and helpful. I bought the housekeeping box that was good value since I ate in the whole time I was there. There is bus service less than a block away. A Mexican grocery across the street. Walmart and Target are south, about a mile, but on bus line. To keep pricing down, you are allotted 2 towels and 2 wash clothes for 2 weeks. If you want daily linen service you pay extra. This is all made very clear on check in. Overall, I'd stay here again with no qualms. If you need a place for a week or more, check out Woodspring Suites.... Tell them Beth was happy! Also, parking is ample!More</t>
   </si>
   <si>
@@ -516,30 +756,63 @@
     <t>Being stuck for 12 days I spent 11 in this hotel. Full size refrigerator 2 burner cook top and microwave. Thru my own fault I didn't notice small magnet on refrigerator telling me front desk has plates etc for use. So I used and reused a cup o soup bowl for my cereal. My only complaint would be slamming doors of guest near me and the fact they undoubtedly rented to Sasquatch above me Monday night. Walking so hard it literally shook my bed.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r427837168-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>427837168</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>The rooms are decent and the staff is really awesome! My only complaint is that the wifi is slower than dog shyt but it's free so it's no biggie. Since I need 200 hundred characters here's a fun fact: camels don't actually store water in those humps it's access to another dimension. MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms are decent and the staff is really awesome! My only complaint is that the wifi is slower than dog shyt but it's free so it's no biggie. Since I need 200 hundred characters here's a fun fact: camels don't actually store water in those humps it's access to another dimension. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r423321928-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>423321928</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>Avoid!</t>
+  </si>
+  <si>
+    <t>I don't think I've ever written a negative hotel review, but I guess there's always a first time.This place looks WAY nicer on the outside than in the rooms; the bathroom was especially shabby, with a thick plastic shower curtain that was difficult to wrestle with and let no light through to the shower area.  Extremely limited counter space in the bathroom.In a room with two queen beds, we were permitted two bath towels and two facecloths. Odors carried very quickly from other rooms, down the hall, into our room.Smokers congregated at the exit, so we were always walking through smoke when leaving &amp; returning.They required scans &amp; photocopies of IDs for ALL guests; we have never encountered this in all our travels, including other locations in this chain.Note that no housekeeping is included, and you must leave zero trash in your room or you'll pay a fee."Corporate policy" sets the hall temperature at 67 degrees, perhaps to discourage loitering? VERY unpleasant.This place is supposedly aimed at long-term stays, but I wouldn't recommend a stay of any length, certainly not a long one.  We will never return to this chain.This place is supposedly aimMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded October 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2016</t>
+  </si>
+  <si>
+    <t>I don't think I've ever written a negative hotel review, but I guess there's always a first time.This place looks WAY nicer on the outside than in the rooms; the bathroom was especially shabby, with a thick plastic shower curtain that was difficult to wrestle with and let no light through to the shower area.  Extremely limited counter space in the bathroom.In a room with two queen beds, we were permitted two bath towels and two facecloths. Odors carried very quickly from other rooms, down the hall, into our room.Smokers congregated at the exit, so we were always walking through smoke when leaving &amp; returning.They required scans &amp; photocopies of IDs for ALL guests; we have never encountered this in all our travels, including other locations in this chain.Note that no housekeeping is included, and you must leave zero trash in your room or you'll pay a fee."Corporate policy" sets the hall temperature at 67 degrees, perhaps to discourage loitering? VERY unpleasant.This place is supposedly aimed at long-term stays, but I wouldn't recommend a stay of any length, certainly not a long one.  We will never return to this chain.This place is supposedly aimMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r423320492-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
     <t>423320492</t>
   </si>
   <si>
-    <t>09/28/2016</t>
-  </si>
-  <si>
     <t>Great Atmosphere and Staff!</t>
   </si>
   <si>
     <t>Clean rooms, accommodating and friendly management/staff, family friendly, with reasonable prices. Everything we needed and more.. all we had to do was ask. Comfortable month long stay in 4th floor non-smoking room with child. Thanks guys!MoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
-    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded October 6, 2016</t>
-  </si>
-  <si>
-    <t>Responded October 6, 2016</t>
-  </si>
-  <si>
     <t>Clean rooms, accommodating and friendly management/staff, family friendly, with reasonable prices. Everything we needed and more.. all we had to do was ask. Comfortable month long stay in 4th floor non-smoking room with child. Thanks guys!More</t>
   </si>
   <si>
@@ -549,9 +822,6 @@
     <t>423191815</t>
   </si>
   <si>
-    <t xml:space="preserve">Great place </t>
-  </si>
-  <si>
     <t>One of the best places that I have stayed. The rooms were modern and clean. The staff was friendly and very helpful. I am one hundred percent disabled and in a wheelchair and the staff treated me like I was home. MoreShow less</t>
   </si>
   <si>
@@ -576,6 +846,51 @@
     <t>The room was clean and modern.The employees were friendly and professional.But best of all this is the cheapest hotel in the Denver Area.I would stay at this hotel again, you really can't beat the bargain.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r413314872-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>413314872</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>AWESOME</t>
+  </si>
+  <si>
+    <t>The staff at thus hotel treat you like family.  The hotel is clean and I feel safe here.  The location meets my needs and is very close to Interstates 225, 25 and 70.  Mike, Daron, Shateria, Walt, Miss Mary and Christina are pleasant and always helpful.  Do not pass this hotel up when visiting Denver!!!!!  GO BRONCOS!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded September 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2016</t>
+  </si>
+  <si>
+    <t>The staff at thus hotel treat you like family.  The hotel is clean and I feel safe here.  The location meets my needs and is very close to Interstates 225, 25 and 70.  Mike, Daron, Shateria, Walt, Miss Mary and Christina are pleasant and always helpful.  Do not pass this hotel up when visiting Denver!!!!!  GO BRONCOS!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r412783086-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>412783086</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>Very nice and friendly place to stay.</t>
+  </si>
+  <si>
+    <t>The room was very clean.  The staff are very polite.  My son was here for work and we were going to look for another place but then decided we could not do better than here and the price was right for us.  I do the cooking and cleaning so when I needed a broom to sweep between their cleanings they are happy to loan one to me.  Micheal one of the staff members was a great help with information that would make our stay more enjoyable!  We had to pay for our wifi but Micheal said that as of next week it will be included since they are changing to Woodsprings.  The room has a refrigerator, microwave, stove and full size bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was very clean.  The staff are very polite.  My son was here for work and we were going to look for another place but then decided we could not do better than here and the price was right for us.  I do the cooking and cleaning so when I needed a broom to sweep between their cleanings they are happy to loan one to me.  Micheal one of the staff members was a great help with information that would make our stay more enjoyable!  We had to pay for our wifi but Micheal said that as of next week it will be included since they are changing to Woodsprings.  The room has a refrigerator, microwave, stove and full size bed.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r411442138-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -591,9 +906,6 @@
     <t>Stayed in double room 210. Clean and Spartan. Staff was very friendly and helpful. Staff was not at front desk 24 hours, but available via phone to come to desk. Rooms have refrigerator,cook top 2 burner,tv,small table and 2 chairs . WiFy was $10.00 for week. It is an inexpensive place to stay for short term. We stayed 8 nights. We are 76 and 74 with no Children. There are no other facilities available, ie pool gym etc. Planning to stay in SeptMoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded August 31, 2016</t>
   </si>
   <si>
@@ -651,6 +963,57 @@
     <t>I stayed at Value Place, the experience was an excellent one. The staff was great, especially Shaiteria and Deron. They went above and beyond to ensure excellent service. Mary kept my room very clean, and the rest of the staff maintained a very clean, very enjoyable environment.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r336092703-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>336092703</t>
+  </si>
+  <si>
+    <t>12/30/2015</t>
+  </si>
+  <si>
+    <t>Jennifer Great Host/Manager!!</t>
+  </si>
+  <si>
+    <t>The stay here at the Value Place was great. They staff was amazing and made it really easy to transition into a new place. We stayed a month here and was always treated well and never felt like was any bother to any of the staff. The over-night manager was very friendly and helpful. She was AMAZING! Thanks and will recommend to friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded January 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2016</t>
+  </si>
+  <si>
+    <t>The stay here at the Value Place was great. They staff was amazing and made it really easy to transition into a new place. We stayed a month here and was always treated well and never felt like was any bother to any of the staff. The over-night manager was very friendly and helpful. She was AMAZING! Thanks and will recommend to friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r330434817-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>330434817</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t>😌😌</t>
+  </si>
+  <si>
+    <t>The staff at Value place are always on point, our rooms are cleaned to the T and towels and wash cloths available always. Despite the location this hotel is nice, and Da'Ron Da' Ron's the ish he makes our stay well worth the pay! If you decide to come here deal with him and I'll bet you'll write a good review too,! Thanks for everything our stay has been great!MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded December 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2015</t>
+  </si>
+  <si>
+    <t>The staff at Value place are always on point, our rooms are cleaned to the T and towels and wash cloths available always. Despite the location this hotel is nice, and Da'Ron Da' Ron's the ish he makes our stay well worth the pay! If you decide to come here deal with him and I'll bet you'll write a good review too,! Thanks for everything our stay has been great!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r326329474-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -720,6 +1083,57 @@
     <t>Other reviewers are correct---just ask for the GM DaRon. He was attentive, courteous, and professional and helped to make our 3-week stay very enjoyable. Mary in the Housekeeping Dept was also extremely kind and concerned with making our stay comfortable. The studio room we stayed in was compact but had very usable space---especially the kitchen. With such great service and good accommodations, it is extra amazing that this was by far the most affordable extended-stay hotel we could find.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r315872830-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>315872830</t>
+  </si>
+  <si>
+    <t>10/03/2015</t>
+  </si>
+  <si>
+    <t>Just ask for DeRon or Staff</t>
+  </si>
+  <si>
+    <t>I was in a position several months ago where I moved to Denver and my living arrangements did not go according to plan. But I was extremely fortunate to have spoken with the general manager, DeRon Porter, and he was able to book me with a room on relatively short notice. From the very beginning he was professional and that carried over during the several months that I stayed there. The facility was clean, well-lit and well-kept.  I was supposed to write this two months ago when I moved out...things happen...however, regardless of how long it took to do it, I would not let it rest until it got done. I highly recommend this location. And I wish the entire staff the best!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded October 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2015</t>
+  </si>
+  <si>
+    <t>I was in a position several months ago where I moved to Denver and my living arrangements did not go according to plan. But I was extremely fortunate to have spoken with the general manager, DeRon Porter, and he was able to book me with a room on relatively short notice. From the very beginning he was professional and that carried over during the several months that I stayed there. The facility was clean, well-lit and well-kept.  I was supposed to write this two months ago when I moved out...things happen...however, regardless of how long it took to do it, I would not let it rest until it got done. I highly recommend this location. And I wish the entire staff the best!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r315390554-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>315390554</t>
+  </si>
+  <si>
+    <t>10/01/2015</t>
+  </si>
+  <si>
+    <t>not happy with the area</t>
+  </si>
+  <si>
+    <t>In the heart of drug alley, constant party on 3rd floor til 2,3,or 4 in the morning. Don't use this hotel if you have other options. Next door at the travellodge the cops are there at least 3 times a week.MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded October 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2015</t>
+  </si>
+  <si>
+    <t>In the heart of drug alley, constant party on 3rd floor til 2,3,or 4 in the morning. Don't use this hotel if you have other options. Next door at the travellodge the cops are there at least 3 times a week.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r308526404-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -735,12 +1149,6 @@
     <t>If you'd like to stay at the world's most ghetto hotel, come to value place. Let's start here, one night, we were out of toilet paper, so we called the front desk. The front desk said they were out and we would have to wait until the next day for toilet paper. The next day came, we attempted again.This time, the toilet paper was a part of the "linen exchange" program that cost $9.87 to be a part of. The linen exchange program is a service that the hotel will wash your sheets and towels weekly, as well as give you new trash bags and toilet paper. So that being said, we found out that it is the guest's responsibility to secure their own toilet paper. I can not believe the type of hotel that doesn't have the extremely cheap toilet paper automatically provided for customers. Explain to me how toilet paper is physically a "linen" though. That's an argument for another time. This ghetto establishment has its own internet publicist ready to respond to any negative reviews. The management couldn't have acted more unprofessional, as well as the staff couldn't appear to be more unprofessional. The area manager, Nate, couldn't have treated me as a paying guest more, more unprofessionally. Just know this place is not worth it, no matter how much you save. Worst hotel experience possible.  I will never return to this hotel and neither should you....If you'd like to stay at the world's most ghetto hotel, come to value place. Let's start here, one night, we were out of toilet paper, so we called the front desk. The front desk said they were out and we would have to wait until the next day for toilet paper. The next day came, we attempted again.This time, the toilet paper was a part of the "linen exchange" program that cost $9.87 to be a part of. The linen exchange program is a service that the hotel will wash your sheets and towels weekly, as well as give you new trash bags and toilet paper. So that being said, we found out that it is the guest's responsibility to secure their own toilet paper. I can not believe the type of hotel that doesn't have the extremely cheap toilet paper automatically provided for customers. Explain to me how toilet paper is physically a "linen" though. That's an argument for another time. This ghetto establishment has its own internet publicist ready to respond to any negative reviews. The management couldn't have acted more unprofessional, as well as the staff couldn't appear to be more unprofessional. The area manager, Nate, couldn't have treated me as a paying guest more, more unprofessionally. Just know this place is not worth it, no matter how much you save. Worst hotel experience possible.  I will never return to this hotel and neither should you. One star because you couldn't pick zero.MoreShow less</t>
   </si>
   <si>
-    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded October 2, 2015</t>
-  </si>
-  <si>
-    <t>Responded October 2, 2015</t>
-  </si>
-  <si>
     <t>If you'd like to stay at the world's most ghetto hotel, come to value place. Let's start here, one night, we were out of toilet paper, so we called the front desk. The front desk said they were out and we would have to wait until the next day for toilet paper. The next day came, we attempted again.This time, the toilet paper was a part of the "linen exchange" program that cost $9.87 to be a part of. The linen exchange program is a service that the hotel will wash your sheets and towels weekly, as well as give you new trash bags and toilet paper. So that being said, we found out that it is the guest's responsibility to secure their own toilet paper. I can not believe the type of hotel that doesn't have the extremely cheap toilet paper automatically provided for customers. Explain to me how toilet paper is physically a "linen" though. That's an argument for another time. This ghetto establishment has its own internet publicist ready to respond to any negative reviews. The management couldn't have acted more unprofessional, as well as the staff couldn't appear to be more unprofessional. The area manager, Nate, couldn't have treated me as a paying guest more, more unprofessionally. Just know this place is not worth it, no matter how much you save. Worst hotel experience possible.  I will never return to this hotel and neither should you....If you'd like to stay at the world's most ghetto hotel, come to value place. Let's start here, one night, we were out of toilet paper, so we called the front desk. The front desk said they were out and we would have to wait until the next day for toilet paper. The next day came, we attempted again.This time, the toilet paper was a part of the "linen exchange" program that cost $9.87 to be a part of. The linen exchange program is a service that the hotel will wash your sheets and towels weekly, as well as give you new trash bags and toilet paper. So that being said, we found out that it is the guest's responsibility to secure their own toilet paper. I can not believe the type of hotel that doesn't have the extremely cheap toilet paper automatically provided for customers. Explain to me how toilet paper is physically a "linen" though. That's an argument for another time. This ghetto establishment has its own internet publicist ready to respond to any negative reviews. The management couldn't have acted more unprofessional, as well as the staff couldn't appear to be more unprofessional. The area manager, Nate, couldn't have treated me as a paying guest more, more unprofessionally. Just know this place is not worth it, no matter how much you save. Worst hotel experience possible.  I will never return to this hotel and neither should you. One star because you couldn't pick zero.More</t>
   </si>
   <si>
@@ -786,12 +1194,60 @@
     <t>This location were perfect  The staff    Managers, housekeepers,and maintence were excellent. These guys should be rewarded For there good work and Professionalism If they were on my staff I would reward them    Mikey, Sharteka, Deron, Mary, Gina, and WaltMoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>This location were perfect  The staff    Managers, housekeepers,and maintence were excellent. These guys should be rewarded For there good work and Professionalism If they were on my staff I would reward them    Mikey, Sharteka, Deron, Mary, Gina, and WaltMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r295386298-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>295386298</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>Outstanding Staff</t>
+  </si>
+  <si>
+    <t>The staff here is very professional, friendly and very helpful including everyone from Ian, the night watchman to front desk staff or facilities managers. The only room available was on the 3rd Fl which is the smoking floor and I'm allergic.  We took it, but requested as soon as a room came available on the 4th floor please notify us, LeRon at the front desk kept his word and immediately notified us.  My husband was away on business and I would not be able to lift and move all that we had in the room. I never said anything to LeRon nor asked for help, but he send Mikey to help me move from the 3rd floor to the 4th.  Mikey was so kind, patience and extremely helpful. I couldn't have done it without him. He was very capable. Overall it was a clean hotel and our stay here was an excellent one. We would come back in a heartbeat.MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded August 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2015</t>
+  </si>
+  <si>
+    <t>The staff here is very professional, friendly and very helpful including everyone from Ian, the night watchman to front desk staff or facilities managers. The only room available was on the 3rd Fl which is the smoking floor and I'm allergic.  We took it, but requested as soon as a room came available on the 4th floor please notify us, LeRon at the front desk kept his word and immediately notified us.  My husband was away on business and I would not be able to lift and move all that we had in the room. I never said anything to LeRon nor asked for help, but he send Mikey to help me move from the 3rd floor to the 4th.  Mikey was so kind, patience and extremely helpful. I couldn't have done it without him. He was very capable. Overall it was a clean hotel and our stay here was an excellent one. We would come back in a heartbeat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r288701830-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>288701830</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>Amazing Staff!!</t>
+  </si>
+  <si>
+    <t>I cannot say enough about the staff here. From the manager to the housekeepers....everyone makes you feel right at home while you are away from home. I have never been so welcomed. The added security gives me peace of mind, being a woman traveling for business. There has not been a moment since arriving that the staff has not called me by name, and spoken to me no matter who I pass in the hall. They are phenomenal.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2015</t>
+  </si>
+  <si>
+    <t>I cannot say enough about the staff here. From the manager to the housekeepers....everyone makes you feel right at home while you are away from home. I have never been so welcomed. The added security gives me peace of mind, being a woman traveling for business. There has not been a moment since arriving that the staff has not called me by name, and spoken to me no matter who I pass in the hall. They are phenomenal.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r285812679-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -850,6 +1306,48 @@
   </si>
   <si>
     <t>I've stayed at Value Place in six different states, this was by far the worst. Let me say that Duron, and the other people at the front desk were as helpful as they could be. There was a constant humming noise in my room (433) I never did figure out where it came from. On Friday the elevator broke it was fixed later in the day. Then Saturday afternoon it broke again the front desk said they would be out first thing Monday morning. THAT IS NOT ACCEPTABLE!!!!!! Your a four story hotel you MUST!!! have someone available 24/7 and secondly I left Monday morning at 9:00 a.m. and they still weren't even working on the elevator. I'm 60 years old and recently had knee surgery I didn't feel like climbing four floors 10 times a day not to mention having to make 10 trips on Monday morning with my belongings. To the owner/manager: if the elevator goes out I care don't if it costs $1,000 an hour it must be fixed IMMEDIATELY!!!! I saw people older then me attempting to navigate the stairs, I saw people lugging groceries and luggage up four flight of stairs. Value Place that was a poor performance on your part.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r274278699-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>274278699</t>
+  </si>
+  <si>
+    <t>05/24/2015</t>
+  </si>
+  <si>
+    <t>Attentive and Caring Staff!</t>
+  </si>
+  <si>
+    <t>My family and I stayed at the Value Place Aurora due to uncontrolable circumstances. I must say it's a situation we were not used to. But the staff here made us feel welcome, comfortable,safe, &amp; important! I know the first place to call when I need a place for an extended amount of time! Thank you ALL! Deron, Charles, Ian, Ms. Mary, &amp; Michael! You guy's made our bad situation a lot better! Keep up the great work! It was alway's nice to see your smiles, but next time it'll be only a quick drive by to say hi! MoreShow less</t>
+  </si>
+  <si>
+    <t>Sean A, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2015</t>
+  </si>
+  <si>
+    <t>My family and I stayed at the Value Place Aurora due to uncontrolable circumstances. I must say it's a situation we were not used to. But the staff here made us feel welcome, comfortable,safe, &amp; important! I know the first place to call when I need a place for an extended amount of time! Thank you ALL! Deron, Charles, Ian, Ms. Mary, &amp; Michael! You guy's made our bad situation a lot better! Keep up the great work! It was alway's nice to see your smiles, but next time it'll be only a quick drive by to say hi! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r271865667-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>271865667</t>
+  </si>
+  <si>
+    <t>05/13/2015</t>
+  </si>
+  <si>
+    <t>An excellent staff with a terrific clientele.</t>
+  </si>
+  <si>
+    <t>Firat of all, I stayed there for a week. I wasn't sure what to make of an extended stay in that part of town, however I quickly made friends with the staff. Amonst whom, Michael (the janitor) helped me move my hundreds and ten pound computer to the third floor. Its still running pretty well (windy face). the community was kind and respectful. The staff was more than great and given their prices it was not only a great living space with excellent service but an absolute joy I would repeat any day.MoreShow less</t>
+  </si>
+  <si>
+    <t>Firat of all, I stayed there for a week. I wasn't sure what to make of an extended stay in that part of town, however I quickly made friends with the staff. Amonst whom, Michael (the janitor) helped me move my hundreds and ten pound computer to the third floor. Its still running pretty well (windy face). the community was kind and respectful. The staff was more than great and given their prices it was not only a great living space with excellent service but an absolute joy I would repeat any day.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r268207832-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
@@ -872,12 +1370,6 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>Sean A, Guest Relations Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded May 26, 2015</t>
-  </si>
-  <si>
-    <t>Responded May 26, 2015</t>
-  </si>
-  <si>
     <t>My fiance and I were relocated to Denver on short notice with no place to stay.  So we checked out several extended stay motels and after three hours we chose the Value Place in Aurora.  When I called to inquire about rates and availability DeRon was immediately ready to assist me with my questions and I had many.  He made our first night as great as our last.  
 When I called DeRon I inquired about the bed size and if we decided it was not a good fit could we upgrade at any time and he assured me we could.  After the first week we decided a room with two beds would be better suited for us so I called DeRon and he arranged for us to move by the end of the next day.  During our two month stay while we searched for housing, all the staff was helpful, respectful, and willing to go above and beyond their duties to assist us.  
 The housekeeping cleaned our room on time every other week and ALWAYS changed our sheets, towels etc.  When ever the staff would see us in the hall or out front they always called us by name and asked how our day was going.  Something you don't get at other motels.  The VP was always clean, internet worked everyday and ALWAYS felt safe.  When our 30 days had passed I contacted DeRon to inquire about the tax refund...My fiance and I were relocated to Denver on short notice with no place to stay.  So we checked out several extended stay motels and after three hours we chose the Value Place in Aurora.  When I called to inquire about rates and availability DeRon was immediately ready to assist me with my questions and I had many.  He made our first night as great as our last.  When I called DeRon I inquired about the bed size and if we decided it was not a good fit could we upgrade at any time and he assured me we could.  After the first week we decided a room with two beds would be better suited for us so I called DeRon and he arranged for us to move by the end of the next day.  During our two month stay while we searched for housing, all the staff was helpful, respectful, and willing to go above and beyond their duties to assist us.  The housekeeping cleaned our room on time every other week and ALWAYS changed our sheets, towels etc.  When ever the staff would see us in the hall or out front they always called us by name and asked how our day was going.  Something you don't get at other motels.  The VP was always clean, internet worked everyday and ALWAYS felt safe.  When our 30 days had passed I contacted DeRon to inquire about the tax refund and just as he had explained we got all of the taxes previously paid refunded to us.  From that day until we moved to our new apartment we were not charged any tax.  That to me is AWESOME!!!We made many life long friends with General manager' DeRon, Security manager; Ian, Property manager; Mikey, Miss Mary from housekeeping and all of the AMAZINGLY professional staff.  When we called DeRon to let him know our apartment would not be ready until Sunday and our week was up on Friday, he graciously changed us to nightly and gave us the extra time needed to move our belongings from the room.  I have to say that if we ever need temporary housing in the future, we will not hesitate to call the VP in Aurora:-)....We love and miss you all!!!  Thanks, Jerry and YvonneMore</t>
@@ -919,24 +1411,57 @@
     <t>Mikey is a wonderful employee and he is very helpful. When needed, he is always on time and gets the job done without fuss. Always has a great attitude and deserves a promotion/raise.  Thank you for our pleasant visit here and have a blessed day!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r261361818-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>261361818</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay on any day</t>
+  </si>
+  <si>
+    <t>We have stayed here at Value Place several times. It is very clean and has a fantastic staff. From the manager to the housekeeper this place is a class act. I feel my family is safe here. Value Place has always been a great choice for my family.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>We have stayed here at Value Place several times. It is very clean and has a fantastic staff. From the manager to the housekeeper this place is a class act. I feel my family is safe here. Value Place has always been a great choice for my family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r260340432-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>260340432</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Grate place to stay</t>
+  </si>
+  <si>
+    <t>Staying at value place and it's the cleanest weekly iv stayed the house keeper miss Mary is friendly and helpfull. This place just feels like home I will stay here time after time five out of five stars no doubtMoreShow less</t>
+  </si>
+  <si>
+    <t>Staying at value place and it's the cleanest weekly iv stayed the house keeper miss Mary is friendly and helpfull. This place just feels like home I will stay here time after time five out of five stars no doubtMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r260339695-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
     <t>260339695</t>
   </si>
   <si>
-    <t>03/18/2015</t>
-  </si>
-  <si>
     <t>Mrs Christy Starcher</t>
   </si>
   <si>
     <t>We have stayed at Value Place several times. Both before and after the remodelling of the rooms. This  Value Place is the cleanest of all the hotels here in Aurora. The staff here is second to none. Miss Mary the housekeeper keeps this place as clean as I have seen a hotel. Always willing to help and as polite as can be. I would rate this hotel and it's staff 5 out of 5 stars. Staying here was a great choice for our family.MoreShow less</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t>We have stayed at Value Place several times. Both before and after the remodelling of the rooms. This  Value Place is the cleanest of all the hotels here in Aurora. The staff here is second to none. Miss Mary the housekeeper keeps this place as clean as I have seen a hotel. Always willing to help and as polite as can be. I would rate this hotel and it's staff 5 out of 5 stars. Staying here was a great choice for our family.More</t>
   </si>
   <si>
@@ -979,6 +1504,54 @@
     <t>my stay here was very pleasant everyone was helpful but above everything Mikey one of the workers was very helpful really nice guy anytime we needed anything or anyone else did he was right there giving a helpful hand and I would come back for him he made it an extremely nice stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r259688838-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>259688838</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>Best Value for Extended Stay</t>
+  </si>
+  <si>
+    <t>I stayed 6 months at Value Place Aurora, and always found the place clean and the staff helpful, courteous and at times even funny.  The manger DaRon Porter is very thorough and dedicated.  The price is better than hotels in the region.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>I stayed 6 months at Value Place Aurora, and always found the place clean and the staff helpful, courteous and at times even funny.  The manger DaRon Porter is very thorough and dedicated.  The price is better than hotels in the region.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r252662373-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>252662373</t>
+  </si>
+  <si>
+    <t>02/04/2015</t>
+  </si>
+  <si>
+    <t>Great Place for Extended Stay</t>
+  </si>
+  <si>
+    <t>Convenient location off I-225 and 6th Avenue close to Aurora Town Center with Super Target and other major stores nearby. Clean room, fresh linens, towels on request, frig, microwave and stove, good rates.........great for extended stay needs. General Manager DaRon Porter really made by stay enjoyable with a friendly hello each day. He and the rest of the staff are responsive, willing and able to help guests whenever asked.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Sean A, Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded February 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2015</t>
+  </si>
+  <si>
+    <t>Convenient location off I-225 and 6th Avenue close to Aurora Town Center with Super Target and other major stores nearby. Clean room, fresh linens, towels on request, frig, microwave and stove, good rates.........great for extended stay needs. General Manager DaRon Porter really made by stay enjoyable with a friendly hello each day. He and the rest of the staff are responsive, willing and able to help guests whenever asked.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r247048690-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -994,12 +1567,6 @@
     <t>My family and I stayed her while we're looking for an apartment after relocating. The manager, DaRon was always professional, helpful, and welcoming. I would definitely recommend that any relocaters, visitors, or travel workers stay here while in the area, they do a great job of making you feel at home.MoreShow less</t>
   </si>
   <si>
-    <t>Sean A, Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded February 5, 2015</t>
-  </si>
-  <si>
-    <t>Responded February 5, 2015</t>
-  </si>
-  <si>
     <t>My family and I stayed her while we're looking for an apartment after relocating. The manager, DaRon was always professional, helpful, and welcoming. I would definitely recommend that any relocaters, visitors, or travel workers stay here while in the area, they do a great job of making you feel at home.More</t>
   </si>
   <si>
@@ -1045,6 +1612,42 @@
     <t>My family had the experience of staying.  It was safe, rooms were in excellent condition, it was a positive environment.  Anything we needed from staff was provided.  The service was great.  I would also state that both staff, D.J. and Mary from Housekeeping plays a key role to the amazing customer service of the building.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r237321674-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>237321674</t>
+  </si>
+  <si>
+    <t>Cool</t>
+  </si>
+  <si>
+    <t>Pretty good place to stay, has all the requirements in it. The only thing I'd improve is add more channels on TV and improve the wireless speed. Compared to other motels, this is the most affordable and comfortable place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Pretty good place to stay, has all the requirements in it. The only thing I'd improve is add more channels on TV and improve the wireless speed. Compared to other motels, this is the most affordable and comfortable place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r236122488-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>236122488</t>
+  </si>
+  <si>
+    <t>10/24/2014</t>
+  </si>
+  <si>
+    <t>Best place I've stayed in!!</t>
+  </si>
+  <si>
+    <t>Value Place is THE best place we've stayed in.  It's makes it easier to be in a hotel for 2 months when you have someone like DJ at the front desk.  Always warm and welcoming!!! Great place with great service!! Thanks DJ!! If you do have a situation it's always taken care quickly and that's good.  All in all I would never stay anywhere else again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Value Place is THE best place we've stayed in.  It's makes it easier to be in a hotel for 2 months when you have someone like DJ at the front desk.  Always warm and welcoming!!! Great place with great service!! Thanks DJ!! If you do have a situation it's always taken care quickly and that's good.  All in all I would never stay anywhere else again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r234795529-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -1078,9 +1681,6 @@
     <t>I have been staying at Value Place in Aurora for the past month and I really like it.Everyone is very nice and the place is always clean.I highly recommend this hotel especially if you have kids.Value Place is super safe and staff is always available when needed especially Dj.Dj is a very nice young man that works here.He is so helpful and always has a smile on his face!I truly appreciate him.One time the elevator was down and Dj saw me coming with my twins,3 year old and groceries and he helped me carry my twins and stroller to the 2nd Floor without me even asking.That was super nice of him,he went the extra mile to help me and I am really thankful for that.We need more people like Dj in this world.MoreShow less</t>
   </si>
   <si>
-    <t>October 2014</t>
-  </si>
-  <si>
     <t>I have been staying at Value Place in Aurora for the past month and I really like it.Everyone is very nice and the place is always clean.I highly recommend this hotel especially if you have kids.Value Place is super safe and staff is always available when needed especially Dj.Dj is a very nice young man that works here.He is so helpful and always has a smile on his face!I truly appreciate him.One time the elevator was down and Dj saw me coming with my twins,3 year old and groceries and he helped me carry my twins and stroller to the 2nd Floor without me even asking.That was super nice of him,he went the extra mile to help me and I am really thankful for that.We need more people like Dj in this world.More</t>
   </si>
   <si>
@@ -1102,6 +1702,42 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r216717035-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>216717035</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>excellent place for the money</t>
+  </si>
+  <si>
+    <t>upon arriving I was greeted by Da'ron the general manager. He is friendly, knowledgeable about running the place, tell you everything you need to do to be comfortable, read you all the rules of the house. This guy made you feel right at home. I stayed for one week, the room was as promised, nice and clean, I would not hesitate to stay here again in the future. Keep up the good work Da'ron!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r211934917-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>211934917</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>wonderful place</t>
+  </si>
+  <si>
+    <t>I stayed in the Value Place in Aurora Co. We stayed for one week. The place was very clean and well managed. Every one  of the staff were real helpful. they were as nice as you could find any where in a friendly State. We were close to Denver with so many  things to do that I could not get to do everything I wanted to. Aurora has all the places to eat that You want. No big city problems there. Not at all like Denver. I will have to make a return trip soon. The parking was good and no trouble finding a good spot. Both front and back, with easy access.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I stayed in the Value Place in Aurora Co. We stayed for one week. The place was very clean and well managed. Every one  of the staff were real helpful. they were as nice as you could find any where in a friendly State. We were close to Denver with so many  things to do that I could not get to do everything I wanted to. Aurora has all the places to eat that You want. No big city problems there. Not at all like Denver. I will have to make a return trip soon. The parking was good and no trouble finding a good spot. Both front and back, with easy access.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r206674258-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -1150,6 +1786,51 @@
     <t>I have stayed at the Value Place in aurora CO for almost two years and I must say that on the whole the staff is excellent!! Every small issue that I had was taken care of in a timely matter. Some staff that really deserve honorable mention are Ian, Kate, Mary, Cory, and Pat. They have made my stay feel more homey and comfortable, they have acted in the most professional matter on all terms with me and my family. I would honestly recommend this establishment for a small family for an extended stay!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r185219615-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>185219615</t>
+  </si>
+  <si>
+    <t>11/19/2013</t>
+  </si>
+  <si>
+    <t>Horrible rooms with even worse staff</t>
+  </si>
+  <si>
+    <t>The room I was in, had burn holes in the vanity and holes in the shower/tub peoplehang out in the hallways even though it is against there policy. The microwave did not work properly. When I tried to check in my room I was told it had been sold to someone else.Upon leaving the one of staff accused me of stealing the luggage cart? Told Bruce the MGR and seem to careless about the problem.Nathan [--] is nearly impossible to get hold of, even though he promises to put a credit to my credit card he has never do so?</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r181074568-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>181074568</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>Don't waste your time booking this place, they never have a room.</t>
+  </si>
+  <si>
+    <t>DO NOT BOOK THIS PLACE!!  Confirmation means nothing, you can arrive there and not have a room! Reservation was confirmed online and held with my credit card.  Called to pay in full on the day of arrival, and they claimed no room available. They stated a customer did not check out and had extended their stay KNOWING they had a reservation booked already.  INSANE!!  The front desk agent had no comment, nothing to say.  No solution for their poor customer service and useless online booking site.  NOT MY PROBLEM.  I've stayed in many hotels, wanting to extend stay and denied because the hotel was full, and had reservations for future dates.  Again, NOT MY PROBLEM.  I fail to understand how you can CONFIRM a reservation, and upon checkin, you have NO ROOMS?!!  This was unacceptable customer service. I just retired from 29 yrs in the airline business and have NEVER  experienced this situation.  Its quite frustrating!! I could have gone to this hotel in the morning, anytime, all day to checkin.  There should have been some disclaimer about overbookings or the possibility of NOT having a room available even WITH a confirmation...according to Hotel's policy..... I hope they improve  reservation policies and STOP inconveniencing potential repeat customers!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Nathan B, Manager at WoodSpring Suites Denver Aurora, responded to this reviewResponded October 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2013</t>
+  </si>
+  <si>
+    <t>DO NOT BOOK THIS PLACE!!  Confirmation means nothing, you can arrive there and not have a room! Reservation was confirmed online and held with my credit card.  Called to pay in full on the day of arrival, and they claimed no room available. They stated a customer did not check out and had extended their stay KNOWING they had a reservation booked already.  INSANE!!  The front desk agent had no comment, nothing to say.  No solution for their poor customer service and useless online booking site.  NOT MY PROBLEM.  I've stayed in many hotels, wanting to extend stay and denied because the hotel was full, and had reservations for future dates.  Again, NOT MY PROBLEM.  I fail to understand how you can CONFIRM a reservation, and upon checkin, you have NO ROOMS?!!  This was unacceptable customer service. I just retired from 29 yrs in the airline business and have NEVER  experienced this situation.  Its quite frustrating!! I could have gone to this hotel in the morning, anytime, all day to checkin.  There should have been some disclaimer about overbookings or the possibility of NOT having a room available even WITH a confirmation...according to Hotel's policy..... I hope they improve  reservation policies and STOP inconveniencing potential repeat customers!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r159746311-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -1217,6 +1898,48 @@
   </si>
   <si>
     <t>my family was staying here until they found a new place to live. so my brother in law called my sister and told her that he found a bed bug on my nephew. he was about to put the bedding out of their room and one of the worker yelled about him and said that why are you trying to infect the whole building. so my sister and i got back to to the room and we found a the bed bug in the sheets that my brother in law said.  the staff dont care about the bed bugs and other people that are living here to us that they found bed bugs in their room. bruce is rude and dont care if someone has a medical problem my sister has to have a assistance dog because of her health and bruce  said that my sister dog cant be their assistance dog. NEVER GO HERE BED BUGS PLEASE WATCH OUT. HERE IS A PICTURE OF WHAT WE FOUNDMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r125847446-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>125847446</t>
+  </si>
+  <si>
+    <t>03/09/2012</t>
+  </si>
+  <si>
+    <t>Freshly Painted Ghetto</t>
+  </si>
+  <si>
+    <t>I've stayed at two Value Place locations, including this Aurora location.  Both experiences were awful.  Highlights of this stay:Cons:"Rapping" staff.  Shirtless beggar knocking at the door.Pet excrement on the front porch area for days.Desk staff refusing to give a receipt for the condition of room at desired check-out time.Apparently inebriated manager.Error-riddled billing.  (This issue was resolved after multiple exchanges with the manager.)Snow shoveled from walk to between cars.Coin-op washers seem to have non-standard fill switches; they fill about 3/4.  (One washer? 1.25.  Transferring half your wet load to another washer?  Priceless.)The kid at the desk claimed that I had reserved a higher price room.  Like billing issues, having the print-out handy resolved the issue.The card keys regularly and inconveniently stopped working.And more!Pros:The police are always patrolling.Paint is nice after staff cleans body fluids from the walls.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Heather L, Property Management Company at WoodSpring Suites Denver Aurora, responded to this reviewResponded March 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2012</t>
+  </si>
+  <si>
+    <t>I've stayed at two Value Place locations, including this Aurora location.  Both experiences were awful.  Highlights of this stay:Cons:"Rapping" staff.  Shirtless beggar knocking at the door.Pet excrement on the front porch area for days.Desk staff refusing to give a receipt for the condition of room at desired check-out time.Apparently inebriated manager.Error-riddled billing.  (This issue was resolved after multiple exchanges with the manager.)Snow shoveled from walk to between cars.Coin-op washers seem to have non-standard fill switches; they fill about 3/4.  (One washer? 1.25.  Transferring half your wet load to another washer?  Priceless.)The kid at the desk claimed that I had reserved a higher price room.  Like billing issues, having the print-out handy resolved the issue.The card keys regularly and inconveniently stopped working.And more!Pros:The police are always patrolling.Paint is nice after staff cleans body fluids from the walls.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r124930949-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>124930949</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>Horrible place</t>
+  </si>
+  <si>
+    <t>Do not stay here.My father visited and I get calls all night about how there's noise and security and staff did not do there job.So noise went extra innings till 3 so cops were called three times and still the same noise.The lady also called my father by the room phone yelling at him.Stay away!!!!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1156926-r122552478-WoodSpring_Suites_Denver_Aurora-Aurora_Colorado.html</t>
@@ -1798,41 +2521,23 @@
       <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
-      <c r="Y2" t="s">
-        <v>53</v>
-      </c>
+      <c r="Y2" t="s"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1847,34 +2552,34 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>54</v>
       </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1886,13 +2591,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1908,34 +2613,34 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" t="s">
-        <v>68</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1947,13 +2652,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="X4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -1969,48 +2674,58 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>71</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>73</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>74</v>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -2026,7 +2741,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -2035,47 +2750,43 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="X6" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -2091,7 +2802,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -2100,49 +2811,43 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="X7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -2158,7 +2863,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -2167,33 +2872,33 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>99</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -2203,13 +2908,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="X8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y8" t="s">
         <v>101</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="9">
@@ -2225,39 +2930,41 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
         <v>103</v>
       </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>104</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>105</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>106</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>107</v>
       </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>98</v>
-      </c>
       <c r="O9" t="s">
-        <v>99</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
@@ -2268,13 +2975,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="X9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -2290,7 +2997,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2299,47 +3006,39 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
-      <c r="N10" t="s">
-        <v>114</v>
-      </c>
-      <c r="O10" t="s">
-        <v>68</v>
-      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>1</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="X10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
@@ -2355,7 +3054,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2364,49 +3063,47 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="X11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y11" t="s">
         <v>125</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="12">
@@ -2422,58 +3119,58 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
         <v>127</v>
       </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>128</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>129</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>130</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
         <v>131</v>
       </c>
-      <c r="M12" t="n">
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
         <v>4</v>
       </c>
-      <c r="N12" t="s">
-        <v>132</v>
-      </c>
-      <c r="O12" t="s">
-        <v>68</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="X12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
@@ -2489,58 +3186,52 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
         <v>134</v>
       </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>135</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>136</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>137</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>138</v>
       </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>139</v>
-      </c>
       <c r="O13" t="s">
-        <v>68</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" t="s">
         <v>140</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>141</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="14">
@@ -2556,34 +3247,34 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
         <v>143</v>
       </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>144</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>145</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>146</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>147</v>
       </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>148</v>
-      </c>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2595,13 +3286,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
         <v>149</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>150</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="15">
@@ -2617,37 +3308,37 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
         <v>152</v>
       </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>153</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>154</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>155</v>
       </c>
-      <c r="L15" t="s">
-        <v>156</v>
-      </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
@@ -2662,13 +3353,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>148</v>
+      </c>
+      <c r="X15" t="s">
         <v>149</v>
       </c>
-      <c r="X15" t="s">
-        <v>150</v>
-      </c>
       <c r="Y15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
@@ -2684,52 +3375,56 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
         <v>158</v>
       </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>159</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>160</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>161</v>
-      </c>
-      <c r="L16" t="s">
-        <v>162</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="X16" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="Y16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
@@ -2745,52 +3440,56 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s">
         <v>166</v>
       </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>167</v>
       </c>
-      <c r="J17" t="s">
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
         <v>168</v>
       </c>
-      <c r="K17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L17" t="s">
-        <v>170</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>171</v>
-      </c>
       <c r="O17" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="X17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
@@ -2806,52 +3505,58 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
         <v>175</v>
       </c>
-      <c r="G18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>176</v>
       </c>
-      <c r="J18" t="s">
-        <v>168</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
         <v>177</v>
       </c>
-      <c r="L18" t="s">
-        <v>178</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>171</v>
-      </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="X18" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Y18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
@@ -2867,7 +3572,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2876,47 +3581,49 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="X19" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Y19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
@@ -2932,56 +3639,58 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" t="s">
+        <v>190</v>
+      </c>
+      <c r="K20" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s">
+        <v>192</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>186</v>
       </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s">
-        <v>187</v>
-      </c>
-      <c r="J20" t="s">
-        <v>188</v>
-      </c>
-      <c r="K20" t="s">
-        <v>189</v>
-      </c>
-      <c r="L20" t="s">
-        <v>190</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4</v>
-      </c>
-      <c r="N20" t="s">
-        <v>191</v>
-      </c>
       <c r="O20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="X20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
@@ -2997,7 +3706,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -3006,49 +3715,49 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
         <v>4</v>
       </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="X21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
@@ -3064,7 +3773,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -3073,30 +3782,32 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
@@ -3107,13 +3818,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="X22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Y22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23">
@@ -3129,7 +3840,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -3138,32 +3849,34 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O23" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
       </c>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
         <v>5</v>
@@ -3172,13 +3885,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
@@ -3194,7 +3907,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -3203,43 +3916,49 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s">
-        <v>68</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
       <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25">
@@ -3255,7 +3974,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3264,10 +3983,10 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J25" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="K25" t="s">
         <v>228</v>
@@ -3282,29 +4001,25 @@
         <v>230</v>
       </c>
       <c r="O25" t="s">
-        <v>84</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
+        <v>218</v>
+      </c>
+      <c r="X25" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y25" t="s">
         <v>231</v>
-      </c>
-      <c r="X25" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="26">
@@ -3320,52 +4035,58 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J26" t="s">
         <v>234</v>
       </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>235</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>236</v>
       </c>
-      <c r="K26" t="s">
-        <v>237</v>
-      </c>
-      <c r="L26" t="s">
-        <v>238</v>
-      </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
         <v>230</v>
       </c>
       <c r="O26" t="s">
-        <v>91</v>
-      </c>
-      <c r="P26" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="X26" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="Y26" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27">
@@ -3381,56 +4102,52 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>239</v>
+      </c>
+      <c r="J27" t="s">
+        <v>240</v>
+      </c>
+      <c r="K27" t="s">
+        <v>241</v>
+      </c>
+      <c r="L27" t="s">
         <v>242</v>
       </c>
-      <c r="G27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" t="s">
-        <v>243</v>
-      </c>
-      <c r="J27" t="s">
-        <v>244</v>
-      </c>
-      <c r="K27" t="s">
-        <v>245</v>
-      </c>
-      <c r="L27" t="s">
-        <v>246</v>
-      </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="O27" t="s">
-        <v>68</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="X27" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Y27" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28">
@@ -3446,7 +4163,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3455,49 +4172,43 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="J28" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K28" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L28" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="O28" t="s">
-        <v>99</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="X28" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Y28" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29">
@@ -3513,7 +4224,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3522,43 +4233,49 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J29" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O29" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="X29" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="Y29" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30">
@@ -3574,7 +4291,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3583,22 +4300,26 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="J30" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="K30" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
+      <c r="N30" t="s">
+        <v>257</v>
+      </c>
+      <c r="O30" t="s">
+        <v>93</v>
+      </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
@@ -3609,13 +4330,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="X30" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="Y30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
@@ -3631,7 +4352,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3640,49 +4361,43 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J31" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="K31" t="s">
-        <v>275</v>
+        <v>145</v>
       </c>
       <c r="L31" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>1</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="X31" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="Y31" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32">
@@ -3698,7 +4413,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3707,33 +4422,31 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J32" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="K32" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="L32" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="O32" t="s">
-        <v>99</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
@@ -3743,13 +4456,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="X32" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="Y32" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33">
@@ -3765,7 +4478,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3774,43 +4487,49 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="J33" t="s">
+        <v>278</v>
+      </c>
+      <c r="K33" t="s">
+        <v>279</v>
+      </c>
+      <c r="L33" t="s">
         <v>280</v>
       </c>
-      <c r="K33" t="s">
-        <v>289</v>
-      </c>
-      <c r="L33" t="s">
-        <v>290</v>
-      </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="O33" t="s">
-        <v>68</v>
-      </c>
-      <c r="P33" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
       <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
+        <v>282</v>
+      </c>
+      <c r="X33" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y33" t="s">
         <v>284</v>
-      </c>
-      <c r="X33" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="34">
@@ -3826,7 +4545,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3835,43 +4554,47 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="J34" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="K34" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="L34" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="O34" t="s">
-        <v>99</v>
-      </c>
-      <c r="P34" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="X34" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Y34" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35">
@@ -3887,7 +4610,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -3896,43 +4619,47 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="J35" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K35" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L35" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="O35" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="X35" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="Y35" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36">
@@ -3948,7 +4675,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -3957,43 +4684,49 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="J36" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="K36" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L36" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>304</v>
+      </c>
+      <c r="O36" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
         <v>4</v>
       </c>
-      <c r="N36" t="s">
-        <v>311</v>
-      </c>
-      <c r="O36" t="s">
-        <v>68</v>
-      </c>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="X36" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="Y36" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37">
@@ -4009,7 +4742,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -4018,43 +4751,47 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="J37" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="K37" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="L37" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="O37" t="s">
-        <v>68</v>
-      </c>
-      <c r="P37" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="X37" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="Y37" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38">
@@ -4070,43 +4807,43 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
+        <v>315</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>316</v>
+      </c>
+      <c r="J38" t="s">
+        <v>317</v>
+      </c>
+      <c r="K38" t="s">
+        <v>318</v>
+      </c>
+      <c r="L38" t="s">
         <v>319</v>
       </c>
-      <c r="G38" t="s">
-        <v>45</v>
-      </c>
-      <c r="H38" t="s">
-        <v>46</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
         <v>320</v>
       </c>
-      <c r="J38" t="s">
-        <v>321</v>
-      </c>
-      <c r="K38" t="s">
-        <v>322</v>
-      </c>
-      <c r="L38" t="s">
-        <v>323</v>
-      </c>
-      <c r="M38" t="n">
-        <v>4</v>
-      </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
+      <c r="O38" t="s">
+        <v>93</v>
+      </c>
       <c r="P38" t="n">
         <v>4</v>
       </c>
       <c r="Q38" t="n">
         <v>5</v>
       </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -4115,13 +4852,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="X38" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Y38" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39">
@@ -4137,34 +4874,34 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
+        <v>324</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>325</v>
+      </c>
+      <c r="J39" t="s">
+        <v>326</v>
+      </c>
+      <c r="K39" t="s">
         <v>327</v>
       </c>
-      <c r="G39" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" t="s">
-        <v>46</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="L39" t="s">
         <v>328</v>
       </c>
-      <c r="J39" t="s">
-        <v>329</v>
-      </c>
-      <c r="K39" t="s">
-        <v>330</v>
-      </c>
-      <c r="L39" t="s">
-        <v>331</v>
-      </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="O39" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4176,13 +4913,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X39" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Y39" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40">
@@ -4198,43 +4935,41 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
+        <v>332</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>333</v>
+      </c>
+      <c r="J40" t="s">
         <v>334</v>
       </c>
-      <c r="G40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" t="s">
-        <v>46</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="K40" t="s">
         <v>335</v>
       </c>
-      <c r="J40" t="s">
+      <c r="L40" t="s">
         <v>336</v>
       </c>
-      <c r="K40" t="s">
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
         <v>337</v>
       </c>
-      <c r="L40" t="s">
-        <v>338</v>
-      </c>
-      <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s">
-        <v>339</v>
-      </c>
       <c r="O40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
       </c>
       <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
         <v>5</v>
@@ -4243,10 +4978,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="X40" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="Y40" t="s">
         <v>340</v>
@@ -4277,46 +5012,40 @@
         <v>342</v>
       </c>
       <c r="J41" t="s">
+        <v>334</v>
+      </c>
+      <c r="K41" t="s">
         <v>343</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>344</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>311</v>
+      </c>
+      <c r="O41" t="s">
+        <v>93</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>338</v>
+      </c>
+      <c r="X41" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y41" t="s">
         <v>345</v>
-      </c>
-      <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
-      <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="s">
-        <v>324</v>
-      </c>
-      <c r="X41" t="s">
-        <v>325</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="42">
@@ -4332,52 +5061,56 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
+        <v>346</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
         <v>347</v>
       </c>
-      <c r="G42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" t="s">
-        <v>46</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>348</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>349</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>350</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
         <v>351</v>
       </c>
-      <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42" t="s">
-        <v>352</v>
-      </c>
       <c r="O42" t="s">
-        <v>68</v>
-      </c>
-      <c r="P42" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
       <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="X42" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="Y42" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43">
@@ -4393,7 +5126,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4402,25 +5135,25 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J43" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K43" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L43" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O43" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4428,12 +5161,8 @@
       <c r="Q43" t="n">
         <v>5</v>
       </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
         <v>5</v>
@@ -4441,10 +5170,14 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>361</v>
+      </c>
+      <c r="X43" t="s">
+        <v>362</v>
+      </c>
       <c r="Y43" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44">
@@ -4460,58 +5193,58 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
+        <v>364</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>365</v>
+      </c>
+      <c r="J44" t="s">
+        <v>366</v>
+      </c>
+      <c r="K44" t="s">
+        <v>367</v>
+      </c>
+      <c r="L44" t="s">
+        <v>368</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
         <v>360</v>
       </c>
-      <c r="G44" t="s">
-        <v>45</v>
-      </c>
-      <c r="H44" t="s">
-        <v>46</v>
-      </c>
-      <c r="I44" t="s">
-        <v>361</v>
-      </c>
-      <c r="J44" t="s">
-        <v>362</v>
-      </c>
-      <c r="K44" t="s">
-        <v>363</v>
-      </c>
-      <c r="L44" t="s">
-        <v>364</v>
-      </c>
-      <c r="M44" t="n">
+      <c r="O44" t="s">
+        <v>93</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
         <v>3</v>
       </c>
-      <c r="N44" t="s">
-        <v>365</v>
-      </c>
-      <c r="O44" t="s">
-        <v>99</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>369</v>
+      </c>
+      <c r="X44" t="s">
+        <v>370</v>
+      </c>
       <c r="Y44" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45">
@@ -4527,7 +5260,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4536,25 +5269,25 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="J45" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="K45" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="L45" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="O45" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4565,10 +5298,14 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>369</v>
+      </c>
+      <c r="X45" t="s">
+        <v>370</v>
+      </c>
       <c r="Y45" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46">
@@ -4584,7 +5321,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -4593,38 +5330,32 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="J46" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="K46" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="L46" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>311</v>
+        <v>383</v>
       </c>
       <c r="O46" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
       </c>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
-      <c r="R46" t="n">
-        <v>4</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
         <v>5</v>
@@ -4632,10 +5363,14 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>384</v>
+      </c>
+      <c r="X46" t="s">
+        <v>385</v>
+      </c>
       <c r="Y46" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="47">
@@ -4651,7 +5386,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4660,53 +5395,49 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="J47" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="K47" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="L47" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="M47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="O47" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
       <c r="R47" t="n">
-        <v>1</v>
-      </c>
-      <c r="S47" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="X47" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Y47" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48">
@@ -4722,7 +5453,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -4731,49 +5462,47 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="J48" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="K48" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="L48" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="O48" t="s">
-        <v>99</v>
-      </c>
-      <c r="P48" t="n">
-        <v>3</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P48" t="s"/>
       <c r="Q48" t="n">
-        <v>2</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1</v>
-      </c>
-      <c r="S48" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>398</v>
+      </c>
+      <c r="X48" t="s">
+        <v>399</v>
+      </c>
       <c r="Y48" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49">
@@ -4789,7 +5518,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -4798,49 +5527,49 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="J49" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="K49" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="L49" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="O49" t="s">
-        <v>68</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>3</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
       <c r="R49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>407</v>
+      </c>
+      <c r="X49" t="s">
+        <v>408</v>
+      </c>
       <c r="Y49" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50">
@@ -4856,7 +5585,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
@@ -4865,49 +5594,43 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="J50" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="K50" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="L50" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="O50" t="s">
-        <v>68</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>1</v>
-      </c>
-      <c r="R50" t="n">
-        <v>4</v>
-      </c>
-      <c r="S50" t="n">
-        <v>1</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>1</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>415</v>
+      </c>
+      <c r="X50" t="s">
+        <v>416</v>
+      </c>
       <c r="Y50" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51">
@@ -4923,7 +5646,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="G51" t="s">
         <v>45</v>
@@ -4932,49 +5655,39 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="J51" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="K51" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L51" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
-      </c>
-      <c r="N51" t="s">
-        <v>410</v>
-      </c>
-      <c r="O51" t="s">
-        <v>52</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>3</v>
-      </c>
-      <c r="R51" t="n">
-        <v>4</v>
-      </c>
-      <c r="S51" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>2</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>415</v>
+      </c>
+      <c r="X51" t="s">
+        <v>416</v>
+      </c>
       <c r="Y51" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52">
@@ -4990,7 +5703,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="G52" t="s">
         <v>45</v>
@@ -4999,25 +5712,25 @@
         <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="J52" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="K52" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="L52" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
       <c r="O52" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -5025,12 +5738,8 @@
       <c r="Q52" t="n">
         <v>1</v>
       </c>
-      <c r="R52" t="n">
-        <v>3</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
         <v>1</v>
@@ -5038,10 +5747,2277 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>415</v>
+      </c>
+      <c r="X52" t="s">
+        <v>416</v>
+      </c>
       <c r="Y52" t="s">
-        <v>415</v>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>430</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>431</v>
+      </c>
+      <c r="J53" t="s">
+        <v>432</v>
+      </c>
+      <c r="K53" t="s">
+        <v>433</v>
+      </c>
+      <c r="L53" t="s">
+        <v>434</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>406</v>
+      </c>
+      <c r="O53" t="s">
+        <v>93</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>435</v>
+      </c>
+      <c r="X53" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>438</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>439</v>
+      </c>
+      <c r="J54" t="s">
+        <v>440</v>
+      </c>
+      <c r="K54" t="s">
+        <v>441</v>
+      </c>
+      <c r="L54" t="s">
+        <v>442</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>406</v>
+      </c>
+      <c r="O54" t="s">
+        <v>65</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>435</v>
+      </c>
+      <c r="X54" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>444</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>445</v>
+      </c>
+      <c r="J55" t="s">
+        <v>446</v>
+      </c>
+      <c r="K55" t="s">
+        <v>447</v>
+      </c>
+      <c r="L55" t="s">
+        <v>448</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>449</v>
+      </c>
+      <c r="O55" t="s">
+        <v>65</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>435</v>
+      </c>
+      <c r="X55" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>451</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>452</v>
+      </c>
+      <c r="J56" t="s">
+        <v>446</v>
+      </c>
+      <c r="K56" t="s">
+        <v>453</v>
+      </c>
+      <c r="L56" t="s">
+        <v>454</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>455</v>
+      </c>
+      <c r="O56" t="s">
+        <v>93</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>435</v>
+      </c>
+      <c r="X56" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>457</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>458</v>
+      </c>
+      <c r="J57" t="s">
+        <v>459</v>
+      </c>
+      <c r="K57" t="s">
+        <v>460</v>
+      </c>
+      <c r="L57" t="s">
+        <v>461</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>455</v>
+      </c>
+      <c r="O57" t="s">
+        <v>65</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>435</v>
+      </c>
+      <c r="X57" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>463</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>464</v>
+      </c>
+      <c r="J58" t="s">
+        <v>465</v>
+      </c>
+      <c r="K58" t="s">
+        <v>466</v>
+      </c>
+      <c r="L58" t="s">
+        <v>467</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>468</v>
+      </c>
+      <c r="O58" t="s">
+        <v>93</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>435</v>
+      </c>
+      <c r="X58" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>470</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>471</v>
+      </c>
+      <c r="J59" t="s">
+        <v>472</v>
+      </c>
+      <c r="K59" t="s">
+        <v>473</v>
+      </c>
+      <c r="L59" t="s">
+        <v>474</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>468</v>
+      </c>
+      <c r="O59" t="s">
+        <v>131</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>435</v>
+      </c>
+      <c r="X59" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>476</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>477</v>
+      </c>
+      <c r="J60" t="s">
+        <v>472</v>
+      </c>
+      <c r="K60" t="s">
+        <v>478</v>
+      </c>
+      <c r="L60" t="s">
+        <v>479</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>468</v>
+      </c>
+      <c r="O60" t="s">
+        <v>93</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>435</v>
+      </c>
+      <c r="X60" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>481</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>482</v>
+      </c>
+      <c r="J61" t="s">
+        <v>483</v>
+      </c>
+      <c r="K61" t="s">
+        <v>484</v>
+      </c>
+      <c r="L61" t="s">
+        <v>485</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>486</v>
+      </c>
+      <c r="O61" t="s">
+        <v>93</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>435</v>
+      </c>
+      <c r="X61" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>488</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>489</v>
+      </c>
+      <c r="J62" t="s">
+        <v>490</v>
+      </c>
+      <c r="K62" t="s">
+        <v>491</v>
+      </c>
+      <c r="L62" t="s">
+        <v>492</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>468</v>
+      </c>
+      <c r="O62" t="s">
+        <v>93</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>435</v>
+      </c>
+      <c r="X62" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>494</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>495</v>
+      </c>
+      <c r="J63" t="s">
+        <v>496</v>
+      </c>
+      <c r="K63" t="s">
+        <v>497</v>
+      </c>
+      <c r="L63" t="s">
+        <v>498</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>499</v>
+      </c>
+      <c r="O63" t="s">
+        <v>65</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>435</v>
+      </c>
+      <c r="X63" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>501</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>502</v>
+      </c>
+      <c r="J64" t="s">
+        <v>503</v>
+      </c>
+      <c r="K64" t="s">
+        <v>504</v>
+      </c>
+      <c r="L64" t="s">
+        <v>505</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>506</v>
+      </c>
+      <c r="O64" t="s">
+        <v>75</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>507</v>
+      </c>
+      <c r="X64" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>510</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>511</v>
+      </c>
+      <c r="J65" t="s">
+        <v>512</v>
+      </c>
+      <c r="K65" t="s">
+        <v>513</v>
+      </c>
+      <c r="L65" t="s">
+        <v>514</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>507</v>
+      </c>
+      <c r="X65" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>516</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>517</v>
+      </c>
+      <c r="J66" t="s">
+        <v>518</v>
+      </c>
+      <c r="K66" t="s">
+        <v>519</v>
+      </c>
+      <c r="L66" t="s">
+        <v>520</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>521</v>
+      </c>
+      <c r="O66" t="s">
+        <v>55</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>507</v>
+      </c>
+      <c r="X66" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>523</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>524</v>
+      </c>
+      <c r="J67" t="s">
+        <v>525</v>
+      </c>
+      <c r="K67" t="s">
+        <v>526</v>
+      </c>
+      <c r="L67" t="s">
+        <v>527</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>528</v>
+      </c>
+      <c r="O67" t="s">
+        <v>93</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>507</v>
+      </c>
+      <c r="X67" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>530</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>531</v>
+      </c>
+      <c r="J68" t="s">
+        <v>525</v>
+      </c>
+      <c r="K68" t="s">
+        <v>532</v>
+      </c>
+      <c r="L68" t="s">
+        <v>533</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>534</v>
+      </c>
+      <c r="O68" t="s">
+        <v>65</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>507</v>
+      </c>
+      <c r="X68" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>536</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>537</v>
+      </c>
+      <c r="J69" t="s">
+        <v>538</v>
+      </c>
+      <c r="K69" t="s">
+        <v>539</v>
+      </c>
+      <c r="L69" t="s">
+        <v>540</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>534</v>
+      </c>
+      <c r="O69" t="s">
+        <v>93</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>507</v>
+      </c>
+      <c r="X69" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>542</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>543</v>
+      </c>
+      <c r="J70" t="s">
+        <v>544</v>
+      </c>
+      <c r="K70" t="s">
+        <v>545</v>
+      </c>
+      <c r="L70" t="s">
+        <v>546</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>507</v>
+      </c>
+      <c r="X70" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>548</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>549</v>
+      </c>
+      <c r="J71" t="s">
+        <v>550</v>
+      </c>
+      <c r="K71" t="s">
+        <v>551</v>
+      </c>
+      <c r="L71" t="s">
+        <v>552</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>534</v>
+      </c>
+      <c r="O71" t="s">
+        <v>93</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>507</v>
+      </c>
+      <c r="X71" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>554</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>555</v>
+      </c>
+      <c r="J72" t="s">
+        <v>556</v>
+      </c>
+      <c r="K72" t="s">
+        <v>557</v>
+      </c>
+      <c r="L72" t="s">
+        <v>558</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>559</v>
+      </c>
+      <c r="O72" t="s">
+        <v>93</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>560</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>561</v>
+      </c>
+      <c r="J73" t="s">
+        <v>562</v>
+      </c>
+      <c r="K73" t="s">
+        <v>563</v>
+      </c>
+      <c r="L73" t="s">
+        <v>564</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>559</v>
+      </c>
+      <c r="O73" t="s">
+        <v>65</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>565</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>566</v>
+      </c>
+      <c r="J74" t="s">
+        <v>567</v>
+      </c>
+      <c r="K74" t="s">
+        <v>568</v>
+      </c>
+      <c r="L74" t="s">
+        <v>569</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>570</v>
+      </c>
+      <c r="O74" t="s">
+        <v>55</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>572</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>573</v>
+      </c>
+      <c r="J75" t="s">
+        <v>574</v>
+      </c>
+      <c r="K75" t="s">
+        <v>575</v>
+      </c>
+      <c r="L75" t="s">
+        <v>576</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>577</v>
+      </c>
+      <c r="O75" t="s">
+        <v>65</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>578</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>579</v>
+      </c>
+      <c r="J76" t="s">
+        <v>580</v>
+      </c>
+      <c r="K76" t="s">
+        <v>581</v>
+      </c>
+      <c r="L76" t="s">
+        <v>582</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>486</v>
+      </c>
+      <c r="O76" t="s">
+        <v>65</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>583</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>584</v>
+      </c>
+      <c r="J77" t="s">
+        <v>585</v>
+      </c>
+      <c r="K77" t="s">
+        <v>586</v>
+      </c>
+      <c r="L77" t="s">
+        <v>587</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>486</v>
+      </c>
+      <c r="O77" t="s">
+        <v>93</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>588</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>589</v>
+      </c>
+      <c r="J78" t="s">
+        <v>590</v>
+      </c>
+      <c r="K78" t="s">
+        <v>591</v>
+      </c>
+      <c r="L78" t="s">
+        <v>592</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>593</v>
+      </c>
+      <c r="O78" t="s">
+        <v>65</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>594</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>595</v>
+      </c>
+      <c r="J79" t="s">
+        <v>596</v>
+      </c>
+      <c r="K79" t="s">
+        <v>597</v>
+      </c>
+      <c r="L79" t="s">
+        <v>598</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>599</v>
+      </c>
+      <c r="O79" t="s">
+        <v>75</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>600</v>
+      </c>
+      <c r="X79" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>603</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>604</v>
+      </c>
+      <c r="J80" t="s">
+        <v>605</v>
+      </c>
+      <c r="K80" t="s">
+        <v>606</v>
+      </c>
+      <c r="L80" t="s">
+        <v>607</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s">
+        <v>608</v>
+      </c>
+      <c r="O80" t="s">
+        <v>75</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>609</v>
+      </c>
+      <c r="X80" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>612</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>613</v>
+      </c>
+      <c r="J81" t="s">
+        <v>614</v>
+      </c>
+      <c r="K81" t="s">
+        <v>615</v>
+      </c>
+      <c r="L81" t="s">
+        <v>616</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>617</v>
+      </c>
+      <c r="O81" t="s">
+        <v>65</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>619</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>620</v>
+      </c>
+      <c r="J82" t="s">
+        <v>621</v>
+      </c>
+      <c r="K82" t="s">
+        <v>622</v>
+      </c>
+      <c r="L82" t="s">
+        <v>623</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>624</v>
+      </c>
+      <c r="O82" t="s">
+        <v>93</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>626</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>627</v>
+      </c>
+      <c r="J83" t="s">
+        <v>628</v>
+      </c>
+      <c r="K83" t="s">
+        <v>629</v>
+      </c>
+      <c r="L83" t="s">
+        <v>630</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>631</v>
+      </c>
+      <c r="O83" t="s">
+        <v>65</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>2</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>632</v>
+      </c>
+      <c r="X83" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>635</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>636</v>
+      </c>
+      <c r="J84" t="s">
+        <v>637</v>
+      </c>
+      <c r="K84" t="s">
+        <v>638</v>
+      </c>
+      <c r="L84" t="s">
+        <v>639</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>631</v>
+      </c>
+      <c r="O84" t="s">
+        <v>93</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>640</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>641</v>
+      </c>
+      <c r="J85" t="s">
+        <v>642</v>
+      </c>
+      <c r="K85" t="s">
+        <v>643</v>
+      </c>
+      <c r="L85" t="s">
+        <v>644</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>645</v>
+      </c>
+      <c r="O85" t="s">
+        <v>93</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>646</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>647</v>
+      </c>
+      <c r="J86" t="s">
+        <v>648</v>
+      </c>
+      <c r="K86" t="s">
+        <v>649</v>
+      </c>
+      <c r="L86" t="s">
+        <v>650</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>651</v>
+      </c>
+      <c r="O86" t="s">
+        <v>75</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>55775</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>652</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>653</v>
+      </c>
+      <c r="J87" t="s">
+        <v>654</v>
+      </c>
+      <c r="K87" t="s">
+        <v>655</v>
+      </c>
+      <c r="L87" t="s">
+        <v>656</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>657</v>
+      </c>
+      <c r="O87" t="s">
+        <v>55</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>656</v>
       </c>
     </row>
   </sheetData>
